--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5CC3C-8AC1-44F3-8385-8B39E1A8AFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8ADEB4-3F30-4459-ACB8-7EA958092C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="category">other_lists!$B$2:$B$5</definedName>
-    <definedName name="disease">other_lists!$B$13:$B$31</definedName>
+    <definedName name="disease">list_diseases!$A$2:$A$22</definedName>
     <definedName name="period">other_lists!$B$6:$B$10</definedName>
+    <definedName name="route">other_lists!$B$13:$B$14</definedName>
     <definedName name="yesno">other_lists!$B$11:$B$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="305">
   <si>
     <t>parameter</t>
   </si>
@@ -488,9 +489,6 @@
     <t>pathogen</t>
   </si>
   <si>
-    <t>endemic_group</t>
-  </si>
-  <si>
     <t>immunity_source</t>
   </si>
   <si>
@@ -534,13 +532,456 @@
   </si>
   <si>
     <t>14Jul2024</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>transmitted mainly through the airborne-droplet route</t>
+  </si>
+  <si>
+    <t>transmitted mainly through the faecal-oral route</t>
+  </si>
+  <si>
+    <t>exemplar</t>
+  </si>
+  <si>
+    <t>r0_min</t>
+  </si>
+  <si>
+    <t>basic reproduction number (minimum)</t>
+  </si>
+  <si>
+    <t>lowest of published range</t>
+  </si>
+  <si>
+    <t>r0_max</t>
+  </si>
+  <si>
+    <t>highest of published range</t>
+  </si>
+  <si>
+    <t>basic reproduction number (maximum)</t>
+  </si>
+  <si>
+    <t>lowest of published range (for highest-risk age group)</t>
+  </si>
+  <si>
+    <t>highest of published range (for highest-risk age group)</t>
+  </si>
+  <si>
+    <t>cfr_min</t>
+  </si>
+  <si>
+    <t>cfr_max</t>
+  </si>
+  <si>
+    <t>source(s)</t>
+  </si>
+  <si>
+    <t>notes on source(s)</t>
+  </si>
+  <si>
+    <t>cfr_rr</t>
+  </si>
+  <si>
+    <t>relative case-fatality ratio</t>
+  </si>
+  <si>
+    <t>used for age scaling; reference = 12 to 59 mths old</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cid/article/13/Supplement_4/S245/313872?login=true
+https://www.sciencedirect.com/science/article/pii/S0140673603142274?via%3Dihub
+https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0004494</t>
+  </si>
+  <si>
+    <t>Matlab, Bangladesh; consistent with Guerin (Sierra Leone) and Central African outbreaks (Kerneis)</t>
+  </si>
+  <si>
+    <t>https://www.panafrican-med-journal.com/content/article/37/368/full/</t>
+  </si>
+  <si>
+    <t>consistent with AL Page (cholera, Haiti). No difference between under 5s and older children in Yemen (https://www.sciencedirect.com/science/article/pii/S2214109X18302304?via%3Dihub). Not much information.</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/jvh.12564</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cid/article/42/12/1679/294278
+https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-017-2542-2</t>
+  </si>
+  <si>
+    <t>No apparent age trend, but most deaths concentrated among pregnant women</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/langlo/article/PIIS2214-109X(18)30537-0/fulltext</t>
+  </si>
+  <si>
+    <t>community-based, LMICs; only 2 age groups provided</t>
+  </si>
+  <si>
+    <t>https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-021-06781-6</t>
+  </si>
+  <si>
+    <t>no evidence of difference by age groups in the Middle East/N Africa region. Weighted mean of Table in annex</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1473309903006698?via%3Dihub#bib54</t>
+  </si>
+  <si>
+    <t>modified CFR above age 5 to be very low but not 0% (unlike source)</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/aje/article/172/11/1213/194806?login=true</t>
+  </si>
+  <si>
+    <t>Paralytic polio.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub
+https://academic.oup.com/cid/article/67/4/628/4924451</t>
+  </si>
+  <si>
+    <t>no evidence of differences by age</t>
+  </si>
+  <si>
+    <t>case-fatality ratio (maximum)</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cid/article/13/Supplement_4/S245/313872?login=true</t>
+  </si>
+  <si>
+    <t>outbreaks 1969-1984 around the world</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0004679</t>
+  </si>
+  <si>
+    <t>African outbreaks</t>
+  </si>
+  <si>
+    <t>CCDM</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2352771420302871?via%3Dihub</t>
+  </si>
+  <si>
+    <t>but higher among pregnant women</t>
+  </si>
+  <si>
+    <t>community-based, any income level</t>
+  </si>
+  <si>
+    <t>Middle East/N Africa</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8322245/</t>
+  </si>
+  <si>
+    <t>outbreak in Nigeria</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jid/article/210/suppl_1/S275/2193460?login=true</t>
+  </si>
+  <si>
+    <t>Republic of Congo</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub</t>
+  </si>
+  <si>
+    <t>highest (Africa, Asia)</t>
+  </si>
+  <si>
+    <t>case-fatality ratio (minimum)</t>
+  </si>
+  <si>
+    <t>https://perspectivesinmedicine.cshlp.org/content/8/9/a031708.long</t>
+  </si>
+  <si>
+    <t>South Korea, China</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8387212/#CR65</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>India, Tajikistan</t>
+  </si>
+  <si>
+    <t>lowest (Africa, Asia)</t>
+  </si>
+  <si>
+    <t>pd_max</t>
+  </si>
+  <si>
+    <t>proportion of symptomatic infections (maximum)</t>
+  </si>
+  <si>
+    <t>https://wwwnc.cdc.gov/eid/article/21/11/15-0333_article</t>
+  </si>
+  <si>
+    <t>Bangladesh, mainly S. flexneri</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4727895/#pmed.1001947.s017</t>
+  </si>
+  <si>
+    <t>S1 Table. Asia studies. Note that age distribution is flat for O139 but that children have higher risk of symptomatic cholera for O1: https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0000221</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/ciz808</t>
+  </si>
+  <si>
+    <t>no range</t>
+  </si>
+  <si>
+    <t>adults (30% in children: very age-dependent).</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jid/article/189/Supplement_1/S165/821757</t>
+  </si>
+  <si>
+    <t>subclinical infections only among previously vaccinated people - don't seem to contribute to R0</t>
+  </si>
+  <si>
+    <t>Middle East; asymptomatic carriage in contacts of cases</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cid/article/70/1/152/5525423?login=true</t>
+  </si>
+  <si>
+    <t>restricted range in Figure 3 to studies from 2000</t>
+  </si>
+  <si>
+    <t>Paralytic polio, N Carolina, 1940s.</t>
+  </si>
+  <si>
+    <t>But chronic carriers are important for transmission!</t>
+  </si>
+  <si>
+    <t>pd_min</t>
+  </si>
+  <si>
+    <t>proportion of symptomatic infections (minimum)</t>
+  </si>
+  <si>
+    <t>https://journals.lww.com/pidj/abstract/1994/07000/asymptomatic_shigella_infections_in_a_cohort_of.3.aspx</t>
+  </si>
+  <si>
+    <t>children in Mexico, but mainly not S. dysenteriae</t>
+  </si>
+  <si>
+    <t>S1 Table. Asia studies.</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0204201</t>
+  </si>
+  <si>
+    <t>children in China</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/doi/full/10.1073/pnas.1323688111</t>
+  </si>
+  <si>
+    <t>Tajikistan. Paralytic polio.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8892528/</t>
+  </si>
+  <si>
+    <t>assumed to be = incubation period</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0163445312003477?ref=pdf_download&amp;fr=RR-8&amp;rr=843d11076faa413c</t>
+  </si>
+  <si>
+    <t>Assume incubation period = pre-infectious period</t>
+  </si>
+  <si>
+    <t>infection to prodromal period</t>
+  </si>
+  <si>
+    <t>https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-018-3095-8</t>
+  </si>
+  <si>
+    <t>incubation period - infectiousness period before symptom onset</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0006807</t>
+  </si>
+  <si>
+    <t>consistent with CCDM</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0140673617314630?via%3Dihub#bib18</t>
+  </si>
+  <si>
+    <t>midpoint of time from infection to rash - 4 days (infectiousness starts 4d before rash)</t>
+  </si>
+  <si>
+    <t>https://www.medicinenet.com/is_meningitis_contagious/article.htm</t>
+  </si>
+  <si>
+    <t>Unclear. Not very good source</t>
+  </si>
+  <si>
+    <t>CCDM
+https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-018-3095-8</t>
+  </si>
+  <si>
+    <t>same as incubation period for pertussis</t>
+  </si>
+  <si>
+    <t>https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-016-0637-z/tables/1</t>
+  </si>
+  <si>
+    <t>https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-018-3391-3</t>
+  </si>
+  <si>
+    <t>subtracted about 5 days from incubation period, as shedding occurs before symptoms. Approximate.</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/aje/article/178/8/1319/83269?login=true</t>
+  </si>
+  <si>
+    <t>US outbreaks, but of S. sonnei</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/microbiolspec.ve-0011-2014</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7
+https://peerj.com/articles/4583/</t>
+  </si>
+  <si>
+    <t>Mean of two Cox Bazar camps in Finger et al. Consistent with Matsuyama et al.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1473309917303079?via%3Dihub</t>
+  </si>
+  <si>
+    <t>outbreaks</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2468042718300514?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>https://journals.asm.org/doi/10.1128/cmr.00083-15</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jid/article/224/9/1529/6246102?login=true
+https://academic.oup.com/aje/article/150/10/1001/102621?login=true</t>
+  </si>
+  <si>
+    <t>Pakistan / Afghanistan and older studies. Fully reverted vdPV seems to have similar transmissibility as wPV: https://onlinelibrary.wiley.com/doi/10.1111/risa.13484</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0002642</t>
+  </si>
+  <si>
+    <t>no variability in literature</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cid/article/43/2/158/333597?login=true</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0041135</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32407793/</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosmedicine/article?id=10.1371/journal.pmed.1000291</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/doi/10.1073/pnas.1808798115#supplementary-materials</t>
+  </si>
+  <si>
+    <t>Latest polio outbreak in Israel</t>
+  </si>
+  <si>
+    <t>https://journals.lww.com/pidj/fulltext/2001/04000/evidence_base_of_incubation_periods,_periods_of.4.aspx</t>
+  </si>
+  <si>
+    <t>shedding</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nrmicro2204
+https://pubmed.ncbi.nlm.nih.gov/25114012/</t>
+  </si>
+  <si>
+    <t>Review: shedding between 1-2 weeks. Weil: 2 days among contacts</t>
+  </si>
+  <si>
+    <t>= 2(serial interval - t(infection to prodromal)). SI = 8 days according to Matsuyama et al, and 7.8d according to Truelove et al. Consistent with CCDM (Heymann, ed.): '2 weeks or less'.</t>
+  </si>
+  <si>
+    <t>Most cases are infectious from 2 weeks before to 1 week after onset of symptoms'</t>
+  </si>
+  <si>
+    <t>WHO and CDC as cited in source</t>
+  </si>
+  <si>
+    <t>Unclear. Not very good source.</t>
+  </si>
+  <si>
+    <t>approximate</t>
+  </si>
+  <si>
+    <t>tau_rx</t>
+  </si>
+  <si>
+    <t>duration of infectious period if treated</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24944120/</t>
+  </si>
+  <si>
+    <t>Not affected by treatment</t>
+  </si>
+  <si>
+    <t>treatment would not reduce shedding</t>
+  </si>
+  <si>
+    <t>Unaffected by treatment, but is affected by prior vaccination: see Fine (https://academic.oup.com/aje/article/150/10/1001/102621?login=true)</t>
+  </si>
+  <si>
+    <t>Treatment reduces shedding by a few days. Approximated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +1001,14 @@
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -600,10 +1049,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -647,11 +1097,103 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1275,7 +1817,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>43</v>
@@ -1289,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1307,7 +1849,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>44</v>
@@ -1321,7 +1863,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1476,25 +2018,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S5">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S10">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1511,36 +2053,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FFDC5-2941-47EB-8C83-E8CE889C2119}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1549,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1651,10 +2184,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="4" t="s">
@@ -1722,10 +2255,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="4" t="s">
@@ -1793,10 +2326,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4" t="s">
@@ -1864,10 +2397,10 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4" t="s">
@@ -1935,10 +2468,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
@@ -2006,10 +2539,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
@@ -2077,10 +2610,10 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4" t="s">
@@ -2148,10 +2681,10 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
@@ -2213,7 +2746,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -2294,7 +2827,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2908,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -2456,7 +2989,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -2537,7 +3070,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2618,7 +3151,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -2699,7 +3232,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -2780,7 +3313,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -2867,10 +3400,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
@@ -2912,10 +3445,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
@@ -2957,10 +3490,10 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
@@ -3002,10 +3535,10 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
@@ -3047,10 +3580,10 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
@@ -3092,10 +3625,10 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
@@ -3137,10 +3670,10 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
@@ -3182,10 +3715,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4" t="s">
@@ -3227,10 +3760,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4" t="s">
@@ -3272,10 +3805,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4" t="s">
@@ -3317,10 +3850,10 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4" t="s">
@@ -3358,35 +3891,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>$G2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>$F2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25 H28">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$G23="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:AG17">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:U28">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$F2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG28">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$G2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3449,15 +3982,15 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
@@ -3527,7 +4060,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -3584,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3641,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -3698,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -3755,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -3812,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -3869,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3926,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -3983,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -4040,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -4097,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -4154,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -4211,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -4268,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -4325,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -4382,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
@@ -4439,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -4496,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -4553,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -4610,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -4667,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
@@ -4724,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -4781,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -4838,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -4895,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
@@ -4952,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -5009,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -5173,25 +5706,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F33">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S28">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S33">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5209,32 +5742,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="18" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="224.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="195.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -5250,1452 +5785,4622 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="P3" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>3</v>
+      </c>
+      <c r="R3" s="18">
+        <v>3</v>
+      </c>
+      <c r="S3" s="18">
+        <v>3</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="O5" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="P5" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="R5" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="S5" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
+        <v>1</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
+      <c r="S8" s="18">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+      <c r="K10" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M10" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="N10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="O10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="P10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="R10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="S10" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>2</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M11" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="N11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="P11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="R11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="S11" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>1</v>
+      </c>
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="17">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="17">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.188</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.108</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="17">
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="17">
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="17">
+        <v>2</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="17">
+        <v>16</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="17">
+        <v>34</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="17">
+        <v>10</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="17">
+        <v>2</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="17">
+        <v>9</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="17">
+        <v>4</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="17">
+        <v>4</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="17">
+        <v>10</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="17">
+        <v>2.73</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="17">
+        <v>7.1</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="17">
+        <v>32</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="17">
+        <v>17</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="17">
+        <v>12</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="17">
+        <v>12</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="17">
+        <v>2.11</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="17">
+        <v>6</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="17">
+        <v>1.31</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="17">
+        <v>1.62</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="17">
+        <v>1.62</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="17">
+        <v>27</v>
+      </c>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="U90" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="17">
+        <v>5</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="17">
+        <v>12.8</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="17">
+        <v>21</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U93" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="17">
+        <v>40</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="17">
+        <v>8</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="17">
+        <v>12</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="17">
+        <v>16</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="U97" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="17">
+        <v>28</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="17">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="U101" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="17">
+        <v>3</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="U102" s="4"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U103" s="23"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="17">
+        <v>21</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="17">
+        <v>21</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B106" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="17">
+        <v>8</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="17">
+        <v>2</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B108" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="17">
+        <v>5</v>
+      </c>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B110" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="17">
+        <v>20</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F45">
-    <cfRule type="expression" dxfId="11" priority="8">
+  <conditionalFormatting sqref="F2:F47 F50:F111">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S45">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$E48="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>$D48="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:S47 G48:S49 F50:S111">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S45">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="G2:S111">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{0A027F1F-AB74-4C61-A026-A1D50725CA47}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{FC186763-E557-4048-95C9-07771DCE1C37}">
       <formula1>yesno</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{CA78E2CB-98D4-4BF4-8970-610A7AEAD961}">
+      <formula1>disease</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="T81" r:id="rId1" xr:uid="{9FE8D3A0-3D2C-4418-BCB1-C757E3E0EC90}"/>
+    <hyperlink ref="T70" r:id="rId2" display="https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7" xr:uid="{D5A52B76-3101-4E1E-BC09-3FB91E5EE429}"/>
+    <hyperlink ref="T59" r:id="rId3" xr:uid="{5F2F7384-A0F1-4599-9408-837F7300188F}"/>
+    <hyperlink ref="T48" r:id="rId4" xr:uid="{71E7BC35-CF36-4940-9B5C-2CB9AA934E57}"/>
+    <hyperlink ref="T37" r:id="rId5" xr:uid="{1607AA65-DB13-4C5B-AF22-06328DE1F1D0}"/>
+    <hyperlink ref="T103" r:id="rId6" xr:uid="{0C905382-B486-4717-B7AE-F63671F1258C}"/>
+    <hyperlink ref="T7" r:id="rId7" xr:uid="{833BCCA7-0E8E-473D-98C1-2602F2979312}"/>
+    <hyperlink ref="T40" r:id="rId8" xr:uid="{46531A92-5C01-45FB-AC93-36A6C3F157BB}"/>
+    <hyperlink ref="T51" r:id="rId9" xr:uid="{E934D860-4B58-4A56-8A27-26253C5B91CB}"/>
+    <hyperlink ref="T20" r:id="rId10" xr:uid="{D8B89E53-7346-4FC8-B413-9A3341AE9646}"/>
+    <hyperlink ref="T9" r:id="rId11" location="bib54" xr:uid="{6ECDD39B-F786-4EDD-BB98-F0ED31E7597D}"/>
+    <hyperlink ref="T3" r:id="rId12" xr:uid="{7EB636CE-DA5A-4691-A3E2-BCA7A1493BBA}"/>
+    <hyperlink ref="T12" r:id="rId13" display="https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub" xr:uid="{1A3B8B8E-84F0-46EB-A47F-A0771EC6938A}"/>
+    <hyperlink ref="T23" r:id="rId14" xr:uid="{5F7AFB34-4610-4E8C-A4D0-ABFB8756C350}"/>
+    <hyperlink ref="T5" r:id="rId15" xr:uid="{F61D81DA-59F5-415C-9854-1512723C641F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6705,12 +10410,20 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6724,12 +10437,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6742,11 +10457,15 @@
       <c r="C2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6759,11 +10478,15 @@
       <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,11 +10499,15 @@
       <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6793,11 +10520,15 @@
       <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6810,11 +10541,15 @@
       <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6827,11 +10562,15 @@
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6844,11 +10583,15 @@
       <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6861,11 +10604,15 @@
       <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,11 +10625,15 @@
       <c r="C10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6895,11 +10646,15 @@
       <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6912,11 +10667,15 @@
       <c r="C12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6930,12 +10689,14 @@
         <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6949,12 +10710,14 @@
         <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6968,12 +10731,14 @@
         <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6987,12 +10752,14 @@
         <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7006,12 +10773,14 @@
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,12 +10794,14 @@
         <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7044,12 +10815,14 @@
         <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,25 +10836,35 @@
         <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C460D45F-23D7-4DC8-8D1E-5888711B7B60}">
+      <formula1>route</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{231077F5-1AB8-4B43-BD82-DCAF849EA3F3}">
+      <formula1>yesno</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE88B5-2204-4009-9FFE-47C39714B5B2}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7225,292 +11008,95 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23933,35 +27519,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K209">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$J2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K211">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$I2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$H2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:AM206">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$G2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:X211">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$H2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:AA211">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$I2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AM211">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$J2="N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8ADEB4-3F30-4459-ACB8-7EA958092C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525AC9A5-9715-47B4-B359-63616688CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="324">
   <si>
     <t>parameter</t>
   </si>
@@ -972,6 +972,63 @@
   </si>
   <si>
     <t>Treatment reduces shedding by a few days. Approximated.</t>
+  </si>
+  <si>
+    <t>r0_base_min</t>
+  </si>
+  <si>
+    <t>r0_base_max</t>
+  </si>
+  <si>
+    <t>assumed based on closest regional values</t>
+  </si>
+  <si>
+    <t>basic reproduction number, pre-crisis conditions (minimum)</t>
+  </si>
+  <si>
+    <t>basic reproduction number, pre-crisis conditions (maximum)</t>
+  </si>
+  <si>
+    <t>cfr_base_min</t>
+  </si>
+  <si>
+    <t>cfr_base_max</t>
+  </si>
+  <si>
+    <t>case-fatality ratio, pre-crisis conditions (minimum)</t>
+  </si>
+  <si>
+    <t>case-fatality ratio, pre-crisis conditions (maximum)</t>
+  </si>
+  <si>
+    <t>https://www.moph.gov.lb/userfiles/images/Prevention/Communicable%20Diseases/Cholera-Surveillance-2022/2-6-2023.pdf</t>
+  </si>
+  <si>
+    <t>Lebanon outbreak</t>
+  </si>
+  <si>
+    <t>https://www.emro.who.int/images/stories/homepage/WHO-Iraq-SitRep_Week-32.pdf?ua=1</t>
+  </si>
+  <si>
+    <t>Iraq, 2022, among confirmed cases</t>
+  </si>
+  <si>
+    <t>Middle East, North Africa</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/langlo/article/PIIS2214-109X(23)00043-8/fulltext</t>
+  </si>
+  <si>
+    <t>Central/Eastern Europe, Central Asia</t>
+  </si>
+  <si>
+    <t>Anderson &amp; May</t>
+  </si>
+  <si>
+    <t>various Europe, N America settings, large-scale transmission</t>
+  </si>
+  <si>
+    <t>Assumed, based on observation that in the Middle East recently cholera has only occurred in settings where services were affected by crisis</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1115,9 +1172,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1125,75 +1179,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -1256,6 +1254,34 @@
         <i/>
         <color theme="3" tint="0.39994506668294322"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2018,25 +2044,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S5">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S10">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3891,35 +3917,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>$G2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>$F2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25 H28">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$G23="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:AG17">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:U28">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$F2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG28">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$G2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5706,25 +5732,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F33">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S28">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S33">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5742,29 +5768,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="18" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="224.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="195.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5899,570 +5925,358 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18">
-        <v>1</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18">
-        <v>1</v>
-      </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="P3" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>3</v>
-      </c>
-      <c r="R3" s="18">
-        <v>3</v>
-      </c>
-      <c r="S3" s="18">
-        <v>3</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>182</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="S4" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1.35</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1.35</v>
-      </c>
-      <c r="O5" s="18">
-        <v>7.89</v>
-      </c>
-      <c r="P5" s="18">
-        <v>7.89</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>14.88</v>
-      </c>
-      <c r="R5" s="18">
-        <v>14.88</v>
-      </c>
-      <c r="S5" s="18">
-        <v>14.88</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>184</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="18">
-        <v>1</v>
-      </c>
-      <c r="O6" s="18">
-        <v>1</v>
-      </c>
-      <c r="P6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>1</v>
-      </c>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
-      <c r="S6" s="18">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.188</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
       <c r="T6" s="4" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="18">
-        <v>1</v>
-      </c>
-      <c r="M8" s="18">
-        <v>1</v>
-      </c>
-      <c r="N8" s="18">
-        <v>1</v>
-      </c>
-      <c r="O8" s="18">
-        <v>1</v>
-      </c>
-      <c r="P8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>1</v>
-      </c>
-      <c r="R8" s="18">
-        <v>1</v>
-      </c>
-      <c r="S8" s="18">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>190</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="H9" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>192</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>178</v>
+        <v>104</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>2</v>
-      </c>
-      <c r="K10" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L10" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="M10" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="N10" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="O10" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="P10" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="R10" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="S10" s="18">
-        <v>4.7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F10" s="17">
+        <v>27</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="4" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>178</v>
+        <v>298</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>2</v>
-      </c>
-      <c r="K11" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L11" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="M11" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="N11" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="O11" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="P11" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="R11" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="S11" s="18">
-        <v>4.7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F11" s="17">
+        <v>7</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="4" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>177</v>
@@ -6502,30 +6316,30 @@
         <v>1</v>
       </c>
       <c r="O12" s="18">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="P12" s="18">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>174</v>
@@ -6540,7 +6354,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="17">
-        <v>7.3999999999999996E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6556,10 +6370,10 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -6567,19 +6381,19 @@
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="17">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6603,22 +6417,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="17">
-        <v>0.5</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6633,29 +6447,31 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
+      <c r="T15" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="U15" s="4" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="17">
-        <v>1.7999999999999999E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -6671,30 +6487,30 @@
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="4" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>198</v>
+        <v>151</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="17">
-        <v>6.8000000000000005E-2</v>
+        <v>1.4</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -6710,30 +6526,30 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="4" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="17">
-        <v>9.8000000000000004E-2</v>
+        <v>2.73</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -6749,30 +6565,30 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="4" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="17">
-        <v>0.5</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -6788,30 +6604,30 @@
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="4" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>198</v>
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="17">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6826,31 +6642,31 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="19" t="s">
-        <v>209</v>
+      <c r="T20" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>198</v>
+        <v>298</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="17">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -6866,30 +6682,28 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>305</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="17">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -6904,31 +6718,29 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="T22" s="4"/>
       <c r="U22" s="4" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>198</v>
+        <v>306</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="17">
-        <v>8.8999999999999996E-2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -6943,31 +6755,29 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="19" t="s">
-        <v>213</v>
-      </c>
+      <c r="T23" s="4"/>
       <c r="U23" s="4" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>215</v>
+        <v>310</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -6983,10 +6793,10 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="4" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6994,13 +6804,13 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>215</v>
+        <v>311</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -7022,10 +6832,10 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="4" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -7033,56 +6843,78 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -7097,16 +6929,14 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="T27" s="19"/>
       <c r="U27" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>173</v>
@@ -7121,7 +6951,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -7136,31 +6966,29 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
-      <c r="T28" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="T28" s="19"/>
       <c r="U28" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="17">
-        <v>1E-3</v>
+        <v>0.7</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -7175,31 +7003,31 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="4" t="s">
-        <v>188</v>
+      <c r="T29" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -7214,31 +7042,31 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="4" t="s">
-        <v>190</v>
+      <c r="T30" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>215</v>
+        <v>151</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="17">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7253,31 +7081,31 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="4" t="s">
-        <v>218</v>
+      <c r="T31" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="17">
-        <v>0.06</v>
+        <v>7.1</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -7292,31 +7120,31 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="4" t="s">
-        <v>211</v>
+      <c r="T32" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="17">
-        <v>0.06</v>
+        <v>1.7</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -7331,31 +7159,29 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="T33" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>12.8</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -7370,31 +7196,29 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>221</v>
+      <c r="T34" s="4"/>
+      <c r="U34" s="22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>223</v>
+        <v>298</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="17">
-        <v>0.45</v>
+        <v>5.2</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -7409,70 +7233,92 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="T35" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="U35" s="22"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="4" t="s">
-        <v>226</v>
+        <v>14</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18">
+        <v>1</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18">
+        <v>1</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="O36" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="P36" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="R36" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="S36" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="17">
-        <v>0.7</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -7487,11 +7333,11 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
-      <c r="T37" s="19" t="s">
-        <v>228</v>
+      <c r="T37" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -7499,19 +7345,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="17">
-        <v>0.7</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -7530,12 +7376,12 @@
         <v>216</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>222</v>
@@ -7550,7 +7396,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="17">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -7566,28 +7412,30 @@
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
       <c r="T39" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U39" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="17">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -7602,31 +7450,31 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
-      <c r="T40" s="19" t="s">
-        <v>231</v>
+      <c r="T40" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>223</v>
+        <v>151</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="17">
-        <v>0.32900000000000001</v>
+        <v>16</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -7642,21 +7490,21 @@
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
       <c r="T41" s="4" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>169</v>
@@ -7665,7 +7513,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="17">
-        <v>0.95</v>
+        <v>2.7</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -7681,30 +7529,30 @@
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
       <c r="T42" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="17">
-        <v>0.02</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -7720,30 +7568,30 @@
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
       <c r="T43" s="4" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>223</v>
+        <v>104</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="17">
-        <v>0.02</v>
+        <v>21</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -7759,30 +7607,30 @@
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
       <c r="T44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
+      </c>
+      <c r="U44" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>223</v>
+        <v>298</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="17">
-        <v>0.98</v>
+        <v>21</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -7797,70 +7645,92 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
-      <c r="T45" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="T45" s="4"/>
       <c r="U45" s="4" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="17">
-        <v>0.188</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1</v>
+      </c>
+      <c r="P46" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>1</v>
+      </c>
+      <c r="R46" s="18">
+        <v>1</v>
+      </c>
+      <c r="S46" s="18">
+        <v>1</v>
+      </c>
       <c r="T46" s="4" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="17">
-        <v>0.108</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -7876,30 +7746,30 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
       <c r="T47" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="20">
-        <v>0.7</v>
+      <c r="F48" s="24">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -7914,31 +7784,31 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="18"/>
-      <c r="T48" s="21" t="s">
-        <v>228</v>
+      <c r="T48" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="17">
-        <v>0.09</v>
+        <v>0.54</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -7954,11 +7824,9 @@
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
       <c r="T49" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -7999,22 +7867,22 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>239</v>
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="17">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -8029,31 +7897,31 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
-      <c r="T51" s="19" t="s">
-        <v>231</v>
+      <c r="T51" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -8068,22 +7936,20 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="18"/>
-      <c r="T52" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="T52" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="U52" s="4"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>167</v>
@@ -8092,7 +7958,7 @@
         <v>15</v>
       </c>
       <c r="F53" s="17">
-        <v>0.7</v>
+        <v>2.11</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -8108,31 +7974,28 @@
       <c r="R53" s="18"/>
       <c r="S53" s="18"/>
       <c r="T53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>239</v>
+        <v>104</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="17">
-        <f>1/211</f>
-        <v>4.7393364928909956E-3</v>
+        <v>40</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -8148,31 +8011,30 @@
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
       <c r="T54" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>239</v>
+        <v>298</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="17">
-        <f>1/211</f>
-        <v>4.7393364928909956E-3</v>
+        <v>21</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -8187,70 +8049,92 @@
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="T55" s="4"/>
       <c r="U55" s="4" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="17">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="4" t="s">
-        <v>247</v>
+        <v>14</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1</v>
+      </c>
+      <c r="J56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="P56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="R56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="S56" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>150</v>
+        <v>174</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="17">
-        <v>2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -8266,30 +8150,30 @@
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="17">
-        <v>1.4</v>
+        <v>1E-3</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -8305,30 +8189,30 @@
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
       <c r="T58" s="4" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>222</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="17">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -8344,30 +8228,30 @@
       <c r="R59" s="18"/>
       <c r="S59" s="18"/>
       <c r="T59" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>150</v>
+        <v>238</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -8382,16 +8266,16 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="T60" s="4" t="s">
-        <v>252</v>
+      <c r="T60" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>151</v>
@@ -8406,7 +8290,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="17">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -8422,10 +8306,10 @@
       <c r="R61" s="18"/>
       <c r="S61" s="18"/>
       <c r="T61" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -8433,19 +8317,19 @@
         <v>33</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>150</v>
+        <v>168</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="17">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -8461,30 +8345,30 @@
       <c r="R62" s="18"/>
       <c r="S62" s="18"/>
       <c r="T62" s="4" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -8500,21 +8384,21 @@
       <c r="R63" s="18"/>
       <c r="S63" s="18"/>
       <c r="T63" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>95</v>
@@ -8523,7 +8407,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -8539,21 +8423,21 @@
       <c r="R64" s="18"/>
       <c r="S64" s="18"/>
       <c r="T64" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>95</v>
@@ -8562,7 +8446,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -8577,29 +8461,29 @@
       <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
       <c r="S65" s="18"/>
-      <c r="T65" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="17">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -8615,28 +8499,30 @@
       <c r="R66" s="18"/>
       <c r="S66" s="18"/>
       <c r="T66" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U66" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -8652,30 +8538,30 @@
       <c r="R67" s="18"/>
       <c r="S67" s="18"/>
       <c r="T67" s="4" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>170</v>
+        <v>310</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F68" s="17">
-        <v>2.2000000000000002</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -8690,31 +8576,31 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
-      <c r="T68" s="22" t="s">
-        <v>265</v>
+      <c r="T68" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>170</v>
+        <v>311</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="17">
-        <v>2.73</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -8730,69 +8616,93 @@
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
       <c r="T69" s="4" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="17">
-        <v>7.1</v>
-      </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="19" t="s">
-        <v>269</v>
+        <v>14</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18">
+        <v>1</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1</v>
+      </c>
+      <c r="J70" s="18">
+        <v>1</v>
+      </c>
+      <c r="K70" s="18">
+        <v>1</v>
+      </c>
+      <c r="L70" s="18">
+        <v>1</v>
+      </c>
+      <c r="M70" s="18">
+        <v>1</v>
+      </c>
+      <c r="N70" s="18">
+        <v>1</v>
+      </c>
+      <c r="O70" s="18">
+        <v>1</v>
+      </c>
+      <c r="P70" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>1</v>
+      </c>
+      <c r="R70" s="18">
+        <v>1</v>
+      </c>
+      <c r="S70" s="18">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="17">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -8808,30 +8718,30 @@
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
       <c r="T71" s="4" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="17">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -8846,20 +8756,22 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="18"/>
-      <c r="T72" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="U72" s="4"/>
+      <c r="T72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>169</v>
@@ -8868,7 +8780,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="17">
-        <v>32</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -8884,10 +8796,10 @@
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
       <c r="T73" s="4" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -8895,19 +8807,19 @@
         <v>38</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F74" s="17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -8923,30 +8835,30 @@
       <c r="R74" s="18"/>
       <c r="S74" s="18"/>
       <c r="T74" s="4" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F75" s="17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -8962,13 +8874,15 @@
       <c r="R75" s="18"/>
       <c r="S75" s="18"/>
       <c r="T75" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="U75" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>168</v>
@@ -8983,7 +8897,7 @@
         <v>15</v>
       </c>
       <c r="F76" s="17">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -8999,30 +8913,30 @@
       <c r="R76" s="18"/>
       <c r="S76" s="18"/>
       <c r="T76" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="U76" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="17">
-        <v>12</v>
+        <v>1.31</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -9038,30 +8952,30 @@
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
       <c r="T77" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>170</v>
+        <v>104</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="17">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -9077,30 +8991,30 @@
       <c r="R78" s="18"/>
       <c r="S78" s="18"/>
       <c r="T78" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>166</v>
+        <v>298</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F79" s="17">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -9116,69 +9030,91 @@
       <c r="R79" s="18"/>
       <c r="S79" s="18"/>
       <c r="T79" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="U79" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="U79" s="4"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="4" t="s">
-        <v>267</v>
+        <v>14</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="H80" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="I80" s="18">
+        <v>1</v>
+      </c>
+      <c r="J80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="P80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Q80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S80" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="T80" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F81" s="17">
-        <v>1.7</v>
+        <v>0.15</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -9194,28 +9130,30 @@
       <c r="R81" s="18"/>
       <c r="S81" s="18"/>
       <c r="T81" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="U81" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F82" s="17">
-        <v>1.1000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -9231,30 +9169,30 @@
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
       <c r="T82" s="4" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="17">
-        <v>2.11</v>
+        <v>0.95</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -9270,19 +9208,21 @@
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
       <c r="T83" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="U83" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>167</v>
@@ -9291,7 +9231,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="17">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -9307,30 +9247,30 @@
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
       <c r="T84" s="4" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="U84" s="4" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F85" s="17">
-        <v>1.31</v>
+        <v>9</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -9346,10 +9286,10 @@
       <c r="R85" s="18"/>
       <c r="S85" s="18"/>
       <c r="T85" s="4" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -9357,19 +9297,19 @@
         <v>34</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="17">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -9385,15 +9325,13 @@
       <c r="R86" s="18"/>
       <c r="S86" s="18"/>
       <c r="T86" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="U86" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="U86" s="4"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>165</v>
@@ -9408,7 +9346,7 @@
         <v>15</v>
       </c>
       <c r="F87" s="17">
-        <v>1.62</v>
+        <v>5.5</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -9424,30 +9362,30 @@
       <c r="R87" s="18"/>
       <c r="S87" s="18"/>
       <c r="T87" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>166</v>
+        <v>104</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="17">
-        <v>1.62</v>
+        <v>16</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -9463,30 +9401,30 @@
       <c r="R88" s="18"/>
       <c r="S88" s="18"/>
       <c r="T88" s="4" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>166</v>
+        <v>298</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F89" s="17">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
@@ -9502,69 +9440,91 @@
       <c r="R89" s="18"/>
       <c r="S89" s="18"/>
       <c r="T89" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="U89" s="4" t="s">
-        <v>279</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="U89" s="4"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>177</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="17">
-        <v>27</v>
-      </c>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H90" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I90" s="18">
+        <v>1</v>
+      </c>
+      <c r="J90" s="18">
+        <v>2</v>
+      </c>
+      <c r="K90" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L90" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M90" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="N90" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="O90" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="P90" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="Q90" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="R90" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="S90" s="18">
+        <v>4.7</v>
+      </c>
       <c r="T90" s="4" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>174</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F91" s="17">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
@@ -9580,30 +9540,30 @@
       <c r="R91" s="18"/>
       <c r="S91" s="18"/>
       <c r="T91" s="4" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="U91" s="4" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>173</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F92" s="17">
-        <v>12.8</v>
+        <v>0.06</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
@@ -9618,29 +9578,31 @@
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="23" t="s">
-        <v>293</v>
+      <c r="T92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="U92" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>94</v>
+        <v>222</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F93" s="17">
-        <v>21</v>
+        <v>0.02</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -9656,30 +9618,31 @@
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
       <c r="T93" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U93" s="23" t="s">
-        <v>294</v>
+        <v>194</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>94</v>
+        <v>238</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="17">
-        <v>40</v>
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -9695,21 +9658,21 @@
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
       <c r="T94" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>95</v>
@@ -9718,7 +9681,7 @@
         <v>15</v>
       </c>
       <c r="F95" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -9734,24 +9697,22 @@
       <c r="R95" s="18"/>
       <c r="S95" s="18"/>
       <c r="T95" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U95" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="U95" s="4"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>168</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>15</v>
@@ -9773,30 +9734,30 @@
       <c r="R96" s="18"/>
       <c r="S96" s="18"/>
       <c r="T96" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="U96" s="4" t="s">
-        <v>296</v>
+        <v>276</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>94</v>
+        <v>165</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="17">
-        <v>16</v>
+        <v>1.62</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -9812,10 +9773,10 @@
       <c r="R97" s="18"/>
       <c r="S97" s="18"/>
       <c r="T97" s="4" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -9857,13 +9818,13 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>95</v>
@@ -9887,66 +9848,92 @@
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
       <c r="S99" s="18"/>
-      <c r="T99" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>94</v>
+        <v>177</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="17">
-        <v>28</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H100" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I100" s="18">
+        <v>1</v>
+      </c>
+      <c r="J100" s="18">
+        <v>2</v>
+      </c>
+      <c r="K100" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L100" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M100" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="N100" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="O100" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="P100" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="Q100" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="R100" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="S100" s="18">
+        <v>4.7</v>
+      </c>
       <c r="T100" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="U100" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="U100" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>299</v>
+        <v>174</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F101" s="17">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -9962,30 +9949,30 @@
       <c r="R101" s="18"/>
       <c r="S101" s="18"/>
       <c r="T101" s="4" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="U101" s="4" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>299</v>
+        <v>173</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F102" s="17">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -10001,28 +9988,30 @@
       <c r="R102" s="18"/>
       <c r="S102" s="18"/>
       <c r="T102" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U102" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="U102" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>299</v>
+        <v>222</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="17">
-        <v>5.2</v>
+        <v>0.02</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
@@ -10037,29 +10026,32 @@
       <c r="Q103" s="18"/>
       <c r="R103" s="18"/>
       <c r="S103" s="18"/>
-      <c r="T103" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="U103" s="23"/>
+      <c r="T103" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U103" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>299</v>
+        <v>238</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F104" s="17">
-        <v>21</v>
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
@@ -10074,20 +10066,22 @@
       <c r="Q104" s="18"/>
       <c r="R104" s="18"/>
       <c r="S104" s="18"/>
-      <c r="T104" s="4"/>
+      <c r="T104" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="U104" s="4" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>95</v>
@@ -10096,7 +10090,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="17">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
@@ -10111,29 +10105,29 @@
       <c r="Q105" s="18"/>
       <c r="R105" s="18"/>
       <c r="S105" s="18"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="T105" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U105" s="4"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>299</v>
+        <v>168</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F106" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
@@ -10148,29 +10142,31 @@
       <c r="Q106" s="18"/>
       <c r="R106" s="18"/>
       <c r="S106" s="18"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4" t="s">
-        <v>302</v>
+      <c r="T106" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U106" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>299</v>
+        <v>165</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F107" s="17">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
@@ -10186,19 +10182,21 @@
       <c r="R107" s="18"/>
       <c r="S107" s="18"/>
       <c r="T107" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U107" s="4"/>
+        <v>287</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>95</v>
@@ -10207,7 +10205,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="17">
-        <v>5</v>
+        <v>16.8</v>
       </c>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
@@ -10223,13 +10221,13 @@
       <c r="R108" s="18"/>
       <c r="S108" s="18"/>
       <c r="T108" s="4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="U108" s="4"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>298</v>
@@ -10266,39 +10264,65 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>299</v>
+        <v>177</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="17">
-        <v>16.8</v>
-      </c>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="18">
+        <v>1</v>
+      </c>
+      <c r="H110" s="18">
+        <v>1</v>
+      </c>
+      <c r="I110" s="18">
+        <v>1</v>
+      </c>
+      <c r="J110" s="18">
+        <v>1</v>
+      </c>
+      <c r="K110" s="18">
+        <v>1</v>
+      </c>
+      <c r="L110" s="18">
+        <v>1</v>
+      </c>
+      <c r="M110" s="18">
+        <v>1</v>
+      </c>
+      <c r="N110" s="18">
+        <v>1</v>
+      </c>
+      <c r="O110" s="18">
+        <v>1</v>
+      </c>
+      <c r="P110" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="18">
+        <v>1</v>
+      </c>
+      <c r="R110" s="18">
+        <v>1</v>
+      </c>
+      <c r="S110" s="18">
+        <v>1</v>
+      </c>
+      <c r="T110" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="U110" s="4" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -10306,19 +10330,19 @@
         <v>39</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>299</v>
+        <v>174</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F111" s="17">
-        <v>20</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
@@ -10333,73 +10357,501 @@
       <c r="Q111" s="18"/>
       <c r="R111" s="18"/>
       <c r="S111" s="18"/>
-      <c r="T111" s="4" t="s">
+      <c r="T111" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="U112" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U111" s="4" t="s">
+      <c r="U113" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="17">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="U114" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="17">
+        <v>10</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="U115" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U116" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U117" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="17">
+        <v>28</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U118" s="4"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="17">
+        <v>20</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="U119" s="4" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F47 F50:F111">
-    <cfRule type="expression" dxfId="8" priority="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U124">
+    <sortCondition ref="A2:A124"/>
+  </sortState>
+  <conditionalFormatting sqref="F2:F47 F50:F124">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$E48="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$D48="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S47 G48:S49 F50:S111">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="F2:S47 G48:S49 F50:S124">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S111">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="G2:S124">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A111 A120:A1048576" xr:uid="{CA78E2CB-98D4-4BF4-8970-610A7AEAD961}">
+      <formula1>disease</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{FC186763-E557-4048-95C9-07771DCE1C37}">
       <formula1>yesno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{CA78E2CB-98D4-4BF4-8970-610A7AEAD961}">
-      <formula1>disease</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T81" r:id="rId1" xr:uid="{9FE8D3A0-3D2C-4418-BCB1-C757E3E0EC90}"/>
-    <hyperlink ref="T70" r:id="rId2" display="https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7" xr:uid="{D5A52B76-3101-4E1E-BC09-3FB91E5EE429}"/>
-    <hyperlink ref="T59" r:id="rId3" xr:uid="{5F2F7384-A0F1-4599-9408-837F7300188F}"/>
-    <hyperlink ref="T48" r:id="rId4" xr:uid="{71E7BC35-CF36-4940-9B5C-2CB9AA934E57}"/>
-    <hyperlink ref="T37" r:id="rId5" xr:uid="{1607AA65-DB13-4C5B-AF22-06328DE1F1D0}"/>
-    <hyperlink ref="T103" r:id="rId6" xr:uid="{0C905382-B486-4717-B7AE-F63671F1258C}"/>
-    <hyperlink ref="T7" r:id="rId7" xr:uid="{833BCCA7-0E8E-473D-98C1-2602F2979312}"/>
-    <hyperlink ref="T40" r:id="rId8" xr:uid="{46531A92-5C01-45FB-AC93-36A6C3F157BB}"/>
-    <hyperlink ref="T51" r:id="rId9" xr:uid="{E934D860-4B58-4A56-8A27-26253C5B91CB}"/>
-    <hyperlink ref="T20" r:id="rId10" xr:uid="{D8B89E53-7346-4FC8-B413-9A3341AE9646}"/>
-    <hyperlink ref="T9" r:id="rId11" location="bib54" xr:uid="{6ECDD39B-F786-4EDD-BB98-F0ED31E7597D}"/>
-    <hyperlink ref="T3" r:id="rId12" xr:uid="{7EB636CE-DA5A-4691-A3E2-BCA7A1493BBA}"/>
-    <hyperlink ref="T12" r:id="rId13" display="https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub" xr:uid="{1A3B8B8E-84F0-46EB-A47F-A0771EC6938A}"/>
-    <hyperlink ref="T23" r:id="rId14" xr:uid="{5F7AFB34-4610-4E8C-A4D0-ABFB8756C350}"/>
-    <hyperlink ref="T5" r:id="rId15" xr:uid="{F61D81DA-59F5-415C-9854-1512723C641F}"/>
+    <hyperlink ref="T33" r:id="rId1" xr:uid="{9FE8D3A0-3D2C-4418-BCB1-C757E3E0EC90}"/>
+    <hyperlink ref="T32" r:id="rId2" display="https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7" xr:uid="{D5A52B76-3101-4E1E-BC09-3FB91E5EE429}"/>
+    <hyperlink ref="T31" r:id="rId3" xr:uid="{5F2F7384-A0F1-4599-9408-837F7300188F}"/>
+    <hyperlink ref="T30" r:id="rId4" xr:uid="{71E7BC35-CF36-4940-9B5C-2CB9AA934E57}"/>
+    <hyperlink ref="T29" r:id="rId5" xr:uid="{1607AA65-DB13-4C5B-AF22-06328DE1F1D0}"/>
+    <hyperlink ref="T35" r:id="rId6" xr:uid="{0C905382-B486-4717-B7AE-F63671F1258C}"/>
+    <hyperlink ref="T56" r:id="rId7" xr:uid="{833BCCA7-0E8E-473D-98C1-2602F2979312}"/>
+    <hyperlink ref="T59" r:id="rId8" xr:uid="{46531A92-5C01-45FB-AC93-36A6C3F157BB}"/>
+    <hyperlink ref="T60" r:id="rId9" xr:uid="{E934D860-4B58-4A56-8A27-26253C5B91CB}"/>
+    <hyperlink ref="T81" r:id="rId10" xr:uid="{D8B89E53-7346-4FC8-B413-9A3341AE9646}"/>
+    <hyperlink ref="T80" r:id="rId11" location="bib54" xr:uid="{6ECDD39B-F786-4EDD-BB98-F0ED31E7597D}"/>
+    <hyperlink ref="T12" r:id="rId12" xr:uid="{7EB636CE-DA5A-4691-A3E2-BCA7A1493BBA}"/>
+    <hyperlink ref="T110" r:id="rId13" display="https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub" xr:uid="{1A3B8B8E-84F0-46EB-A47F-A0771EC6938A}"/>
+    <hyperlink ref="T111" r:id="rId14" xr:uid="{5F7AFB34-4610-4E8C-A4D0-ABFB8756C350}"/>
+    <hyperlink ref="T36" r:id="rId15" xr:uid="{F61D81DA-59F5-415C-9854-1512723C641F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10410,10 +10862,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10632,7 +11084,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -10800,7 +11252,7 @@
         <v>149</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -27519,35 +27971,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K209">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$J2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K211">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$I2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$H2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:AM206">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:X211">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$H2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:AA211">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AM211">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$J2="N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_infections\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525AC9A5-9715-47B4-B359-63616688CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F93E3-E068-4464-8340-042EC47275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="329">
   <si>
     <t>parameter</t>
   </si>
@@ -516,24 +516,12 @@
     <t>year</t>
   </si>
   <si>
-    <t>cases</t>
-  </si>
-  <si>
-    <t>reported cases due to the disease</t>
-  </si>
-  <si>
     <t>date_start</t>
   </si>
   <si>
     <t>date_end</t>
   </si>
   <si>
-    <t>15Jan2024</t>
-  </si>
-  <si>
-    <t>14Jul2024</t>
-  </si>
-  <si>
     <t>route</t>
   </si>
   <si>
@@ -580,12 +568,6 @@
   </si>
   <si>
     <t>notes on source(s)</t>
-  </si>
-  <si>
-    <t>cfr_rr</t>
-  </si>
-  <si>
-    <t>relative case-fatality ratio</t>
   </si>
   <si>
     <t>used for age scaling; reference = 12 to 59 mths old</t>
@@ -1029,16 +1011,51 @@
   </si>
   <si>
     <t>Assumed, based on observation that in the Middle East recently cholera has only occurred in settings where services were affected by crisis</t>
+  </si>
+  <si>
+    <t>cfr_age_rr</t>
+  </si>
+  <si>
+    <t>relative case-fatality ratio by age</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>7Feb2024</t>
+  </si>
+  <si>
+    <t>6Aug2024</t>
+  </si>
+  <si>
+    <t>date_mid</t>
+  </si>
+  <si>
+    <t>mid-point of projection period</t>
+  </si>
+  <si>
+    <t>start of subperiod 2</t>
+  </si>
+  <si>
+    <t>7May2024</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>proportion of the population who are susceptible to disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1080,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1106,11 +1130,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1179,19 +1204,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -1359,13 +1384,6 @@
         <i/>
         <color theme="3" tint="0.39994506668294322"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1699,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1795,69 +1813,64 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4">
-        <f>2000000*0.005</f>
-        <v>10000</v>
-      </c>
-      <c r="H2" s="4">
-        <f>2000000*0.03</f>
-        <v>60000</v>
-      </c>
-      <c r="I2" s="4">
-        <f>2000000*0.13</f>
-        <v>260000</v>
-      </c>
-      <c r="J2" s="4">
-        <f>2000000*0.15</f>
-        <v>300000</v>
-      </c>
-      <c r="K2" s="4">
-        <f>2000000*0.12</f>
-        <v>240000</v>
-      </c>
-      <c r="L2" s="4">
-        <v>255000</v>
-      </c>
-      <c r="M2" s="4">
-        <v>460000</v>
-      </c>
-      <c r="N2" s="4">
-        <v>440000</v>
-      </c>
-      <c r="O2" s="4">
-        <v>400000</v>
-      </c>
-      <c r="P2" s="4">
-        <v>310000</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>80000</v>
-      </c>
-      <c r="R2" s="4">
-        <v>40000</v>
-      </c>
-      <c r="S2" s="4">
-        <v>20000</v>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25">
+        <v>5810</v>
+      </c>
+      <c r="H2" s="25">
+        <v>63911</v>
+      </c>
+      <c r="I2" s="25">
+        <v>267336</v>
+      </c>
+      <c r="J2" s="25">
+        <v>284458</v>
+      </c>
+      <c r="K2" s="25">
+        <v>277192</v>
+      </c>
+      <c r="L2" s="25">
+        <v>235937</v>
+      </c>
+      <c r="M2" s="25">
+        <v>383776</v>
+      </c>
+      <c r="N2" s="25">
+        <v>302060</v>
+      </c>
+      <c r="O2" s="25">
+        <v>181617</v>
+      </c>
+      <c r="P2" s="25">
+        <v>118024</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>67854</v>
+      </c>
+      <c r="R2" s="25">
+        <v>30106</v>
+      </c>
+      <c r="S2" s="25">
+        <v>8463</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(ISNUMBER(SEARCH("placeholder",C3)),"Y","N")</f>
+        <f t="shared" ref="D3:D6" si="0">IF(ISNUMBER(SEARCH("placeholder",C3)),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1875,21 +1888,23 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="D4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4" si="1">IF(ISNUMBER(SEARCH("placeholder",C4)),"Y","N")</f>
         <v>N</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1907,10 +1922,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4" t="str">
@@ -1920,8 +1935,8 @@
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12">
-        <v>100</v>
+      <c r="F5" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1938,12 +1953,23 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2042,27 +2068,48 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="32" priority="5">
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F10">
-    <cfRule type="expression" dxfId="31" priority="6">
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S5">
-    <cfRule type="expression" dxfId="29" priority="1">
+  <conditionalFormatting sqref="F2:S6">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S10">
-    <cfRule type="expression" dxfId="28" priority="4">
+  <conditionalFormatting sqref="G2:S11">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2077,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FFDC5-2941-47EB-8C83-E8CE889C2119}">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3420,518 +3467,16 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H20">
-    <cfRule type="expression" dxfId="27" priority="8">
+  <conditionalFormatting sqref="H2:H17">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$G2="Y"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>$F2="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H25 H28">
-    <cfRule type="expression" dxfId="24" priority="3">
-      <formula>$G23="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:AG17">
@@ -3939,63 +3484,72 @@
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:U28">
+  <conditionalFormatting sqref="I2:U17">
     <cfRule type="expression" dxfId="22" priority="2">
       <formula>$F2="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:AG28">
+  <conditionalFormatting sqref="V2:AG17">
     <cfRule type="expression" dxfId="21" priority="1">
       <formula>$G2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0003BD16-4922-4266-B1F9-87FAF029D467}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{24F5D9C7-82BE-45AA-B411-42CEBB74A101}">
       <formula1>disease</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G1048576" xr:uid="{11A4672E-050E-4F83-9BD8-8C5355C578B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G1048576" xr:uid="{8E571914-ADA5-442D-BF47-706B408F3D5A}">
       <formula1>yesno</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28BBD509-CC9F-40FE-9F97-B58D3C799402}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{257BD0C5-6B8D-4164-B556-3F10D5906393}">
           <x14:formula1>
             <xm:f>2000</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>YEAR(general!#REF!)</xm:f>
           </x14:formula2>
-          <xm:sqref>B4:B73</xm:sqref>
+          <xm:sqref>B4:B62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C21FB4B-68CB-4A54-9F82-2A60E746C088}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E35D295-FB3F-4224-B198-8D2DC24BD7C1}">
+          <x14:formula1>
+            <xm:f>2000</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>YEAR(general!F7)</xm:f>
+          </x14:formula2>
+          <xm:sqref>B63:B1048562</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F5CA290-4832-468F-8E30-A946F026D503}">
+          <x14:formula1>
+            <xm:f>2000</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>YEAR(general!F5)</xm:f>
+          </x14:formula2>
+          <xm:sqref>B1048574:B1048576 B2:B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1315643-4D4C-48D3-B161-5E9945A95724}">
+          <x14:formula1>
+            <xm:f>2000</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>YEAR(general!F1048567)</xm:f>
+          </x14:formula2>
+          <xm:sqref>B1048563:B1048573</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20675C65-574B-4646-8EBB-DE3085645AD1}">
           <x14:formula1>
             <xm:f>2000</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>YEAR(general!F3)</xm:f>
           </x14:formula2>
-          <xm:sqref>B1:B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCA46F4C-A1BB-4FA3-9F80-7C94206B3356}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F6)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B74:B1048573</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BC70729-4DD3-4FE7-A4B8-A07B3E6CF5A1}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F1)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B1048574:B1048576</xm:sqref>
+          <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4005,10 +3559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B34AEB6-3448-469A-95BE-F121CF32094D}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4091,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>47</v>
@@ -4104,43 +3658,43 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4148,7 +3702,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>47</v>
@@ -4161,43 +3715,43 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4205,7 +3759,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
@@ -4218,43 +3772,43 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4262,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -4275,43 +3829,43 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4319,7 +3873,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>47</v>
@@ -4332,43 +3886,43 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4376,7 +3930,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>47</v>
@@ -4389,43 +3943,43 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4433,7 +3987,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>47</v>
@@ -4446,43 +4000,43 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4490,7 +4044,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>47</v>
@@ -4503,43 +4057,43 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4547,7 +4101,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>47</v>
@@ -4560,43 +4114,43 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4604,7 +4158,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>47</v>
@@ -4617,43 +4171,43 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4661,7 +4215,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>47</v>
@@ -4674,168 +4228,168 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S14" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>51</v>
@@ -4845,54 +4399,54 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
@@ -4902,54 +4456,54 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>51</v>
@@ -4959,111 +4513,111 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>51</v>
@@ -5073,54 +4627,54 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>51</v>
@@ -5130,168 +4684,168 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>51</v>
@@ -5301,48 +4855,48 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>112</v>
@@ -5351,7 +4905,7 @@
         <v>96</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -5399,7 +4953,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>112</v>
@@ -5408,7 +4962,7 @@
         <v>96</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
@@ -5456,7 +5010,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>112</v>
@@ -5465,7 +5019,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>14</v>
@@ -5513,7 +5067,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>112</v>
@@ -5570,7 +5124,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>112</v>
@@ -5626,117 +5180,744 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F31">
+  <conditionalFormatting sqref="F2:F42">
     <cfRule type="expression" dxfId="20" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F33">
+  <conditionalFormatting sqref="F2:F44">
     <cfRule type="expression" dxfId="19" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
@@ -5744,12 +5925,12 @@
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S28">
+  <conditionalFormatting sqref="F2:S39">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S33">
+  <conditionalFormatting sqref="G2:S44">
     <cfRule type="expression" dxfId="16" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
@@ -5770,11 +5951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,93 +6035,69 @@
         <v>140</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>178</v>
+        <v>305</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18">
-        <v>1.72</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1.72</v>
-      </c>
-      <c r="I2" s="18">
-        <v>1</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0.44</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0.44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F2" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="4" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>198</v>
+        <v>305</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="17">
-        <v>7.3999999999999996E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -5956,30 +6113,30 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="4" t="s">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>215</v>
+        <v>304</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5995,30 +6152,30 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="4" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>304</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="17">
-        <v>0.45</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -6034,10 +6191,10 @@
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
       <c r="T5" s="4" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -6045,19 +6202,19 @@
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="17">
-        <v>0.188</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -6073,30 +6230,30 @@
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="4" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>170</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="17">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -6112,30 +6269,30 @@
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6150,31 +6307,29 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="26" t="s">
-        <v>265</v>
-      </c>
+      <c r="T8" s="24"/>
       <c r="U8" s="4" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -6190,30 +6345,30 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="4" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="17">
-        <v>27</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -6229,30 +6384,30 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="4" t="s">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>290</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>299</v>
+        <v>170</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="17">
-        <v>7</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6268,93 +6423,69 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="4" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1</v>
-      </c>
-      <c r="L12" s="18">
-        <v>1</v>
-      </c>
-      <c r="M12" s="18">
-        <v>1</v>
-      </c>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="P12" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>3</v>
-      </c>
-      <c r="R12" s="18">
-        <v>3</v>
-      </c>
-      <c r="S12" s="18">
-        <v>3</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>182</v>
+        <v>15</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6369,31 +6500,31 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="4" t="s">
-        <v>201</v>
+      <c r="T13" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6409,30 +6540,30 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="17">
-        <v>0.58899999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6448,30 +6579,30 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="17">
-        <v>0.108</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -6486,31 +6617,31 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="4" t="s">
-        <v>226</v>
+      <c r="T16" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="17">
-        <v>1.4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -6526,10 +6657,10 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="4" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6537,19 +6668,19 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="17">
-        <v>2.73</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -6565,21 +6696,21 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="4" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>167</v>
@@ -6588,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="17">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -6603,31 +6734,29 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="T19" s="19"/>
       <c r="U19" s="4" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>169</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="17">
-        <v>5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6643,30 +6772,30 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="4" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>299</v>
+        <v>169</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="17">
-        <v>3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -6682,28 +6811,30 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U21" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>308</v>
+        <v>169</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="17">
-        <v>0.8</v>
+        <v>1E-3</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -6718,29 +6849,31 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="U22" s="4" t="s">
-        <v>323</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>309</v>
+        <v>169</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -6755,29 +6888,31 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="U23" s="4" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>312</v>
+        <v>169</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -6793,30 +6928,30 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="4" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>315</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>313</v>
+        <v>169</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -6832,89 +6967,69 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="4" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="L26" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="N26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="O26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="P26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="R26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="S26" s="18">
-        <v>0.42</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="17">
-        <v>0.5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -6929,85 +7044,137 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="19"/>
+      <c r="T27" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="U27" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="U28" s="4" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="P29" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>3</v>
+      </c>
+      <c r="R29" s="18">
+        <v>3</v>
+      </c>
+      <c r="S29" s="18">
+        <v>3</v>
+      </c>
       <c r="T29" s="19" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -7015,388 +7182,582 @@
         <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="S30" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>150</v>
+        <v>318</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
+        <v>1</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="O31" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="P31" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="R31" s="18">
+        <v>14.88</v>
+      </c>
+      <c r="S31" s="18">
+        <v>14.88</v>
+      </c>
       <c r="T31" s="19" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="17">
-        <v>7.1</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="19" t="s">
-        <v>269</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1</v>
+      </c>
+      <c r="L32" s="18">
+        <v>1</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1</v>
+      </c>
+      <c r="O32" s="18">
+        <v>1</v>
+      </c>
+      <c r="P32" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>1</v>
+      </c>
+      <c r="R32" s="18">
+        <v>1</v>
+      </c>
+      <c r="S32" s="18">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="17">
-        <v>1.7</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="R33" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="S33" s="18">
+        <v>0.26</v>
+      </c>
       <c r="T33" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="U33" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>318</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="17">
-        <v>12.8</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="22" t="s">
-        <v>293</v>
+        <v>14</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1</v>
+      </c>
+      <c r="O34" s="18">
+        <v>1</v>
+      </c>
+      <c r="P34" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>1</v>
+      </c>
+      <c r="R34" s="18">
+        <v>1</v>
+      </c>
+      <c r="S34" s="18">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="17">
-        <v>5.2</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="H35" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S35" s="18">
+        <v>0.1</v>
+      </c>
       <c r="T35" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="U35" s="22"/>
+        <v>186</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H36" s="18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="18">
         <v>1</v>
       </c>
       <c r="J36" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="18">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36" s="18">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="M36" s="18">
-        <v>1.35</v>
+        <v>3.6</v>
       </c>
       <c r="N36" s="18">
-        <v>1.35</v>
+        <v>4.7</v>
       </c>
       <c r="O36" s="18">
-        <v>7.89</v>
+        <v>4.7</v>
       </c>
       <c r="P36" s="18">
-        <v>7.89</v>
+        <v>4.7</v>
       </c>
       <c r="Q36" s="18">
-        <v>14.88</v>
+        <v>4.7</v>
       </c>
       <c r="R36" s="18">
-        <v>14.88</v>
+        <v>4.7</v>
       </c>
       <c r="S36" s="18">
-        <v>14.88</v>
-      </c>
-      <c r="T36" s="19" t="s">
-        <v>184</v>
+        <v>4.7</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>2</v>
+      </c>
+      <c r="K37" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L37" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M37" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="N37" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="O37" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="P37" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="R37" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="S37" s="18">
+        <v>4.7</v>
+      </c>
       <c r="T37" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="17">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="4" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1</v>
+      </c>
+      <c r="O38" s="18">
+        <v>1</v>
+      </c>
+      <c r="P38" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>1</v>
+      </c>
+      <c r="R38" s="18">
+        <v>1</v>
+      </c>
+      <c r="S38" s="18">
+        <v>1</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="17">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -7412,30 +7773,30 @@
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
       <c r="T39" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="17">
-        <v>0.09</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -7451,30 +7812,30 @@
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
       <c r="T40" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>150</v>
+        <v>216</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="17">
-        <v>16</v>
+        <v>0.7</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -7489,11 +7850,11 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
-      <c r="T41" s="4" t="s">
-        <v>252</v>
+      <c r="T41" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -7501,19 +7862,19 @@
         <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="17">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -7529,30 +7890,30 @@
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
       <c r="T42" s="4" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="17">
-        <v>1.1000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -7568,30 +7929,28 @@
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
       <c r="T43" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>281</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>216</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -7606,31 +7965,31 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
-      <c r="T44" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U44" s="22" t="s">
-        <v>294</v>
+      <c r="T44" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>299</v>
+        <v>216</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="17">
-        <v>21</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -7645,92 +8004,70 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
-      <c r="T45" s="4"/>
+      <c r="T45" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="U45" s="4" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="18">
-        <v>1</v>
-      </c>
-      <c r="I46" s="18">
-        <v>1</v>
-      </c>
-      <c r="J46" s="18">
-        <v>1</v>
-      </c>
-      <c r="K46" s="18">
-        <v>1</v>
-      </c>
-      <c r="L46" s="18">
-        <v>1</v>
-      </c>
-      <c r="M46" s="18">
-        <v>1</v>
-      </c>
-      <c r="N46" s="18">
-        <v>1</v>
-      </c>
-      <c r="O46" s="18">
-        <v>1</v>
-      </c>
-      <c r="P46" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="18">
-        <v>1</v>
-      </c>
-      <c r="R46" s="18">
-        <v>1</v>
-      </c>
-      <c r="S46" s="18">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
       <c r="T46" s="4" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="17">
-        <v>6.8000000000000005E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -7746,30 +8083,30 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
       <c r="T47" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="24">
-        <v>1.4999999999999999E-2</v>
+      <c r="F48" s="20">
+        <v>0.02</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -7784,31 +8121,31 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="18"/>
-      <c r="T48" s="25" t="s">
-        <v>205</v>
+      <c r="T48" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="17">
-        <v>0.54</v>
+        <v>0.98</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -7824,28 +8161,30 @@
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
       <c r="T49" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U49" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="17">
-        <v>0.3</v>
+        <v>0.188</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -7861,28 +8200,30 @@
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
       <c r="T50" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U50" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>150</v>
+        <v>232</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="17">
-        <v>34</v>
+        <v>0.108</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -7898,30 +8239,30 @@
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
       <c r="T51" s="4" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="17">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -7936,29 +8277,31 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="18"/>
-      <c r="T52" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="U52" s="4"/>
+      <c r="T52" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="17">
-        <v>2.11</v>
+        <v>0.09</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -7974,28 +8317,30 @@
       <c r="R53" s="18"/>
       <c r="S53" s="18"/>
       <c r="T53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="U53" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>94</v>
+        <v>232</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="17">
-        <v>40</v>
+        <v>0.3</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -8011,30 +8356,28 @@
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
       <c r="T54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>255</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>299</v>
+        <v>232</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -8049,92 +8392,70 @@
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="4"/>
+      <c r="T55" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="U55" s="4" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18">
-        <v>1</v>
-      </c>
-      <c r="H56" s="18">
-        <v>1</v>
-      </c>
-      <c r="I56" s="18">
-        <v>1</v>
-      </c>
-      <c r="J56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="K56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="L56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="M56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="N56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="O56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="P56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Q56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="R56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="S56" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="17">
-        <v>9.8000000000000004E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -8150,30 +8471,31 @@
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="4" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="17">
-        <v>1E-3</v>
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -8189,30 +8511,31 @@
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
       <c r="T58" s="4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="17">
-        <v>0</v>
+        <f>1/211</f>
+        <v>4.7393364928909956E-3</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -8227,31 +8550,31 @@
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
       <c r="S59" s="18"/>
-      <c r="T59" s="19" t="s">
-        <v>231</v>
+      <c r="T59" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="17">
-        <v>0</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -8266,16 +8589,16 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="T60" s="19" t="s">
+      <c r="T60" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="U60" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>151</v>
@@ -8290,7 +8613,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -8306,30 +8629,30 @@
       <c r="R61" s="18"/>
       <c r="S61" s="18"/>
       <c r="T61" s="4" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="17">
-        <v>32</v>
+        <v>1.4</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -8345,30 +8668,30 @@
       <c r="R62" s="18"/>
       <c r="S62" s="18"/>
       <c r="T62" s="4" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="17">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -8383,22 +8706,22 @@
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
       <c r="S63" s="18"/>
-      <c r="T63" s="4" t="s">
-        <v>271</v>
+      <c r="T63" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>95</v>
@@ -8407,7 +8730,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -8423,21 +8746,21 @@
       <c r="R64" s="18"/>
       <c r="S64" s="18"/>
       <c r="T64" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>95</v>
@@ -8446,7 +8769,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="17">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -8461,9 +8784,11 @@
       <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
       <c r="S65" s="18"/>
-      <c r="T65" s="4"/>
+      <c r="T65" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="U65" s="4" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -8471,19 +8796,19 @@
         <v>33</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="17">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -8499,30 +8824,30 @@
       <c r="R66" s="18"/>
       <c r="S66" s="18"/>
       <c r="T66" s="4" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="17">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -8538,30 +8863,30 @@
       <c r="R67" s="18"/>
       <c r="S67" s="18"/>
       <c r="T67" s="4" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F68" s="17">
-        <v>1.8E-3</v>
+        <v>9</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -8577,30 +8902,30 @@
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
       <c r="T68" s="4" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="17">
-        <v>8.3000000000000001E-3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -8616,93 +8941,65 @@
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
       <c r="T69" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="U69" s="4"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18">
-        <v>1</v>
-      </c>
-      <c r="H70" s="18">
-        <v>1</v>
-      </c>
-      <c r="I70" s="18">
-        <v>1</v>
-      </c>
-      <c r="J70" s="18">
-        <v>1</v>
-      </c>
-      <c r="K70" s="18">
-        <v>1</v>
-      </c>
-      <c r="L70" s="18">
-        <v>1</v>
-      </c>
-      <c r="M70" s="18">
-        <v>1</v>
-      </c>
-      <c r="N70" s="18">
-        <v>1</v>
-      </c>
-      <c r="O70" s="18">
-        <v>1</v>
-      </c>
-      <c r="P70" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="18">
-        <v>1</v>
-      </c>
-      <c r="R70" s="18">
-        <v>1</v>
-      </c>
-      <c r="S70" s="18">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F70" s="17">
+        <v>4</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
       <c r="T70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="U70" s="4" t="s">
-        <v>191</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="U70" s="4"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>198</v>
+        <v>151</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="17">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -8718,30 +9015,30 @@
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
       <c r="T71" s="4" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>215</v>
+        <v>300</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -8756,31 +9053,29 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="18"/>
-      <c r="T72" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="T72" s="4"/>
       <c r="U72" s="4" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>223</v>
+        <v>300</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="17">
-        <v>0.32900000000000001</v>
+        <v>18</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -8796,30 +9091,30 @@
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
       <c r="T73" s="4" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>239</v>
+        <v>299</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F74" s="17">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -8834,31 +9129,29 @@
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
       <c r="S74" s="18"/>
-      <c r="T74" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="T74" s="4"/>
       <c r="U74" s="4" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F75" s="17">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -8874,30 +9167,30 @@
       <c r="R75" s="18"/>
       <c r="S75" s="18"/>
       <c r="T75" s="4" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F76" s="17">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -8912,31 +9205,31 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
       <c r="S76" s="18"/>
-      <c r="T76" s="4" t="s">
-        <v>273</v>
+      <c r="T76" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>166</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="17">
-        <v>1.31</v>
+        <v>2.73</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -8952,30 +9245,30 @@
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
       <c r="T77" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>94</v>
+        <v>164</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="17">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -8990,31 +9283,31 @@
       <c r="Q78" s="18"/>
       <c r="R78" s="18"/>
       <c r="S78" s="18"/>
-      <c r="T78" s="4" t="s">
-        <v>258</v>
+      <c r="T78" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>299</v>
+        <v>164</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F79" s="17">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -9030,91 +9323,67 @@
       <c r="R79" s="18"/>
       <c r="S79" s="18"/>
       <c r="T79" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U79" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="H80" s="18">
-        <v>3.7</v>
-      </c>
-      <c r="I80" s="18">
-        <v>1</v>
-      </c>
-      <c r="J80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="M80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Q80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S80" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="T80" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F80" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="U80" s="4"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F81" s="17">
-        <v>0.15</v>
+        <v>32</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -9129,31 +9398,31 @@
       <c r="Q81" s="18"/>
       <c r="R81" s="18"/>
       <c r="S81" s="18"/>
-      <c r="T81" s="19" t="s">
-        <v>209</v>
+      <c r="T81" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F82" s="17">
-        <v>7.0000000000000001E-3</v>
+        <v>2.5</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -9169,10 +9438,10 @@
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
       <c r="T82" s="4" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -9180,19 +9449,19 @@
         <v>34</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="17">
-        <v>0.95</v>
+        <v>17</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -9208,30 +9477,28 @@
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
       <c r="T83" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="U83" s="4"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F84" s="17">
-        <v>0.7</v>
+        <v>12</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -9247,30 +9514,30 @@
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
       <c r="T84" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="U84" s="4" t="s">
-        <v>235</v>
+        <v>270</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F85" s="17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -9286,30 +9553,30 @@
       <c r="R85" s="18"/>
       <c r="S85" s="18"/>
       <c r="T85" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="U85" s="4" t="s">
-        <v>261</v>
+        <v>270</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="17">
-        <v>17</v>
+        <v>2.8</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -9325,28 +9592,30 @@
       <c r="R86" s="18"/>
       <c r="S86" s="18"/>
       <c r="T86" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="U86" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F87" s="17">
-        <v>5.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -9362,30 +9631,30 @@
       <c r="R87" s="18"/>
       <c r="S87" s="18"/>
       <c r="T87" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="17">
-        <v>16</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -9401,30 +9670,30 @@
       <c r="R88" s="18"/>
       <c r="S88" s="18"/>
       <c r="T88" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>299</v>
+        <v>161</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F89" s="17">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
@@ -9439,92 +9708,68 @@
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
       <c r="S89" s="18"/>
-      <c r="T89" s="4" t="s">
-        <v>203</v>
+      <c r="T89" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="U89" s="4"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H90" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I90" s="18">
-        <v>1</v>
-      </c>
-      <c r="J90" s="18">
-        <v>2</v>
-      </c>
-      <c r="K90" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L90" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="M90" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="N90" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="O90" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="P90" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="Q90" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="R90" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="S90" s="18">
-        <v>4.7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F90" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
       <c r="T90" s="4" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F91" s="17">
-        <v>0.4</v>
+        <v>2.11</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
@@ -9540,30 +9785,28 @@
       <c r="R91" s="18"/>
       <c r="S91" s="18"/>
       <c r="T91" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="U91" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="U91" s="4"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F92" s="17">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
@@ -9579,30 +9822,30 @@
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
       <c r="T92" s="4" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F93" s="17">
-        <v>0.02</v>
+        <v>1.31</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -9618,31 +9861,30 @@
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
       <c r="T93" s="4" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="17">
-        <f>1/211</f>
-        <v>4.7393364928909956E-3</v>
+        <v>5.5</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -9658,10 +9900,10 @@
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
       <c r="T94" s="4" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -9669,19 +9911,19 @@
         <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F95" s="17">
-        <v>4</v>
+        <v>1.62</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -9697,28 +9939,30 @@
       <c r="R95" s="18"/>
       <c r="S95" s="18"/>
       <c r="T95" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U95" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="17">
-        <v>12</v>
+        <v>1.62</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -9734,30 +9978,30 @@
       <c r="R96" s="18"/>
       <c r="S96" s="18"/>
       <c r="T96" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="U96" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="17">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -9773,15 +10017,15 @@
       <c r="R97" s="18"/>
       <c r="S97" s="18"/>
       <c r="T97" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>104</v>
@@ -9796,7 +10040,7 @@
         <v>15</v>
       </c>
       <c r="F98" s="17">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -9812,19 +10056,21 @@
       <c r="R98" s="18"/>
       <c r="S98" s="18"/>
       <c r="T98" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U98" s="4"/>
+        <v>283</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>95</v>
@@ -9833,7 +10079,7 @@
         <v>15</v>
       </c>
       <c r="F99" s="17">
-        <v>16.8</v>
+        <v>5</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -9848,92 +10094,68 @@
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
       <c r="S99" s="18"/>
-      <c r="T99" s="4"/>
+      <c r="T99" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="U99" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>178</v>
+        <v>104</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H100" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I100" s="18">
-        <v>1</v>
-      </c>
-      <c r="J100" s="18">
-        <v>2</v>
-      </c>
-      <c r="K100" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L100" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="M100" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="N100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="O100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="P100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="Q100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="R100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="S100" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="T100" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U100" s="4" t="s">
-        <v>195</v>
+        <v>15</v>
+      </c>
+      <c r="F100" s="17">
+        <v>12.8</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>198</v>
+        <v>104</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F101" s="17">
-        <v>0.4</v>
+        <v>21</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -9949,30 +10171,30 @@
       <c r="R101" s="18"/>
       <c r="S101" s="18"/>
       <c r="T101" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="U101" s="4" t="s">
-        <v>212</v>
+        <v>246</v>
+      </c>
+      <c r="U101" s="22" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F102" s="17">
-        <v>0.06</v>
+        <v>40</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -9988,30 +10210,30 @@
       <c r="R102" s="18"/>
       <c r="S102" s="18"/>
       <c r="T102" s="4" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>223</v>
+        <v>104</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="17">
-        <v>0.02</v>
+        <v>8</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
@@ -10027,31 +10249,30 @@
       <c r="R103" s="18"/>
       <c r="S103" s="18"/>
       <c r="T103" s="4" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>239</v>
+        <v>104</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F104" s="17">
-        <f>1/211</f>
-        <v>4.7393364928909956E-3</v>
+        <v>12</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
@@ -10067,21 +10288,21 @@
       <c r="R104" s="18"/>
       <c r="S104" s="18"/>
       <c r="T104" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>95</v>
@@ -10090,7 +10311,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
@@ -10106,28 +10327,30 @@
       <c r="R105" s="18"/>
       <c r="S105" s="18"/>
       <c r="T105" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U105" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>170</v>
+        <v>104</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F106" s="17">
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
@@ -10143,30 +10366,28 @@
       <c r="R106" s="18"/>
       <c r="S106" s="18"/>
       <c r="T106" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="U106" s="5" t="s">
-        <v>277</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="U106" s="4"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>166</v>
+        <v>104</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F107" s="17">
-        <v>1.62</v>
+        <v>16.8</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
@@ -10182,15 +10403,13 @@
       <c r="R107" s="18"/>
       <c r="S107" s="18"/>
       <c r="T107" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="U107" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="U107" s="4"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>104</v>
@@ -10205,7 +10424,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="17">
-        <v>16.8</v>
+        <v>28</v>
       </c>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
@@ -10221,19 +10440,19 @@
       <c r="R108" s="18"/>
       <c r="S108" s="18"/>
       <c r="T108" s="4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="U108" s="4"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>95</v>
@@ -10242,7 +10461,7 @@
         <v>15</v>
       </c>
       <c r="F109" s="17">
-        <v>16.8</v>
+        <v>7</v>
       </c>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
@@ -10257,92 +10476,68 @@
       <c r="Q109" s="18"/>
       <c r="R109" s="18"/>
       <c r="S109" s="18"/>
-      <c r="T109" s="4"/>
+      <c r="T109" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="U109" s="4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>178</v>
+        <v>292</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18">
-        <v>1</v>
-      </c>
-      <c r="H110" s="18">
-        <v>1</v>
-      </c>
-      <c r="I110" s="18">
-        <v>1</v>
-      </c>
-      <c r="J110" s="18">
-        <v>1</v>
-      </c>
-      <c r="K110" s="18">
-        <v>1</v>
-      </c>
-      <c r="L110" s="18">
-        <v>1</v>
-      </c>
-      <c r="M110" s="18">
-        <v>1</v>
-      </c>
-      <c r="N110" s="18">
-        <v>1</v>
-      </c>
-      <c r="O110" s="18">
-        <v>1</v>
-      </c>
-      <c r="P110" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="18">
-        <v>1</v>
-      </c>
-      <c r="R110" s="18">
-        <v>1</v>
-      </c>
-      <c r="S110" s="18">
-        <v>1</v>
-      </c>
-      <c r="T110" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="U110" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F110" s="17">
+        <v>3</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="U110" s="4"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>198</v>
+        <v>292</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F111" s="17">
-        <v>8.8999999999999996E-2</v>
+        <v>5.2</v>
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
@@ -10358,30 +10553,28 @@
       <c r="R111" s="18"/>
       <c r="S111" s="18"/>
       <c r="T111" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="U111" s="4" t="s">
-        <v>214</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="U111" s="22"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>215</v>
+        <v>292</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F112" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>21</v>
       </c>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
@@ -10396,31 +10589,29 @@
       <c r="Q112" s="18"/>
       <c r="R112" s="18"/>
       <c r="S112" s="18"/>
-      <c r="T112" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="T112" s="4"/>
       <c r="U112" s="4" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>223</v>
+        <v>292</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F113" s="17">
-        <v>0.98</v>
+        <v>21</v>
       </c>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
@@ -10435,31 +10626,29 @@
       <c r="Q113" s="18"/>
       <c r="R113" s="18"/>
       <c r="S113" s="18"/>
-      <c r="T113" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="T113" s="4"/>
       <c r="U113" s="4" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>239</v>
+        <v>292</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F114" s="17">
-        <v>0.58299999999999996</v>
+        <v>8</v>
       </c>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -10474,22 +10663,20 @@
       <c r="Q114" s="18"/>
       <c r="R114" s="18"/>
       <c r="S114" s="18"/>
-      <c r="T114" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="T114" s="4"/>
       <c r="U114" s="4" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>95</v>
@@ -10498,7 +10685,7 @@
         <v>15</v>
       </c>
       <c r="F115" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -10514,30 +10701,28 @@
       <c r="R115" s="18"/>
       <c r="S115" s="18"/>
       <c r="T115" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="U115" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="U115" s="4"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>170</v>
+        <v>292</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F116" s="17">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -10553,30 +10738,28 @@
       <c r="R116" s="18"/>
       <c r="S116" s="18"/>
       <c r="T116" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="U116" s="4" t="s">
-        <v>279</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="U116" s="4"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>166</v>
+        <v>292</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F117" s="17">
-        <v>2.8</v>
+        <v>16.8</v>
       </c>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
@@ -10591,22 +10774,20 @@
       <c r="Q117" s="18"/>
       <c r="R117" s="18"/>
       <c r="S117" s="18"/>
-      <c r="T117" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="T117" s="4"/>
       <c r="U117" s="4" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>95</v>
@@ -10615,7 +10796,7 @@
         <v>15</v>
       </c>
       <c r="F118" s="17">
-        <v>28</v>
+        <v>16.8</v>
       </c>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
@@ -10630,20 +10811,20 @@
       <c r="Q118" s="18"/>
       <c r="R118" s="18"/>
       <c r="S118" s="18"/>
-      <c r="T118" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="U118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>95</v>
@@ -10668,10 +10849,10 @@
       <c r="R119" s="18"/>
       <c r="S119" s="18"/>
       <c r="T119" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U119" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -10791,7 +10972,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U124">
-    <sortCondition ref="A2:A124"/>
+    <sortCondition ref="B2:B124"/>
   </sortState>
   <conditionalFormatting sqref="F2:F47 F50:F124">
     <cfRule type="expression" dxfId="15" priority="3">
@@ -10837,21 +11018,21 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T33" r:id="rId1" xr:uid="{9FE8D3A0-3D2C-4418-BCB1-C757E3E0EC90}"/>
-    <hyperlink ref="T32" r:id="rId2" display="https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7" xr:uid="{D5A52B76-3101-4E1E-BC09-3FB91E5EE429}"/>
-    <hyperlink ref="T31" r:id="rId3" xr:uid="{5F2F7384-A0F1-4599-9408-837F7300188F}"/>
-    <hyperlink ref="T30" r:id="rId4" xr:uid="{71E7BC35-CF36-4940-9B5C-2CB9AA934E57}"/>
-    <hyperlink ref="T29" r:id="rId5" xr:uid="{1607AA65-DB13-4C5B-AF22-06328DE1F1D0}"/>
-    <hyperlink ref="T35" r:id="rId6" xr:uid="{0C905382-B486-4717-B7AE-F63671F1258C}"/>
-    <hyperlink ref="T56" r:id="rId7" xr:uid="{833BCCA7-0E8E-473D-98C1-2602F2979312}"/>
-    <hyperlink ref="T59" r:id="rId8" xr:uid="{46531A92-5C01-45FB-AC93-36A6C3F157BB}"/>
-    <hyperlink ref="T60" r:id="rId9" xr:uid="{E934D860-4B58-4A56-8A27-26253C5B91CB}"/>
-    <hyperlink ref="T81" r:id="rId10" xr:uid="{D8B89E53-7346-4FC8-B413-9A3341AE9646}"/>
-    <hyperlink ref="T80" r:id="rId11" location="bib54" xr:uid="{6ECDD39B-F786-4EDD-BB98-F0ED31E7597D}"/>
-    <hyperlink ref="T12" r:id="rId12" xr:uid="{7EB636CE-DA5A-4691-A3E2-BCA7A1493BBA}"/>
-    <hyperlink ref="T110" r:id="rId13" display="https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub" xr:uid="{1A3B8B8E-84F0-46EB-A47F-A0771EC6938A}"/>
-    <hyperlink ref="T111" r:id="rId14" xr:uid="{5F7AFB34-4610-4E8C-A4D0-ABFB8756C350}"/>
-    <hyperlink ref="T36" r:id="rId15" xr:uid="{F61D81DA-59F5-415C-9854-1512723C641F}"/>
+    <hyperlink ref="T89" r:id="rId1" xr:uid="{9FE8D3A0-3D2C-4418-BCB1-C757E3E0EC90}"/>
+    <hyperlink ref="T78" r:id="rId2" display="https://bmcmedicine.biomedcentral.com/articles/10.1186/s12916-019-1288-7" xr:uid="{D5A52B76-3101-4E1E-BC09-3FB91E5EE429}"/>
+    <hyperlink ref="T63" r:id="rId3" xr:uid="{5F2F7384-A0F1-4599-9408-837F7300188F}"/>
+    <hyperlink ref="T52" r:id="rId4" xr:uid="{71E7BC35-CF36-4940-9B5C-2CB9AA934E57}"/>
+    <hyperlink ref="T41" r:id="rId5" xr:uid="{1607AA65-DB13-4C5B-AF22-06328DE1F1D0}"/>
+    <hyperlink ref="T111" r:id="rId6" xr:uid="{0C905382-B486-4717-B7AE-F63671F1258C}"/>
+    <hyperlink ref="T33" r:id="rId7" xr:uid="{833BCCA7-0E8E-473D-98C1-2602F2979312}"/>
+    <hyperlink ref="T44" r:id="rId8" xr:uid="{46531A92-5C01-45FB-AC93-36A6C3F157BB}"/>
+    <hyperlink ref="T55" r:id="rId9" xr:uid="{E934D860-4B58-4A56-8A27-26253C5B91CB}"/>
+    <hyperlink ref="T13" r:id="rId10" xr:uid="{D8B89E53-7346-4FC8-B413-9A3341AE9646}"/>
+    <hyperlink ref="T35" r:id="rId11" location="bib54" xr:uid="{6ECDD39B-F786-4EDD-BB98-F0ED31E7597D}"/>
+    <hyperlink ref="T29" r:id="rId12" xr:uid="{7EB636CE-DA5A-4691-A3E2-BCA7A1493BBA}"/>
+    <hyperlink ref="T38" r:id="rId13" display="https://www.sciencedirect.com/science/article/pii/S0163445320306903?via%3Dihub" xr:uid="{1A3B8B8E-84F0-46EB-A47F-A0771EC6938A}"/>
+    <hyperlink ref="T16" r:id="rId14" xr:uid="{5F7AFB34-4610-4E8C-A4D0-ABFB8756C350}"/>
+    <hyperlink ref="T31" r:id="rId15" xr:uid="{F61D81DA-59F5-415C-9854-1512723C641F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10865,7 +11046,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:A20"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10889,13 +11070,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -11460,24 +11641,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F93E3-E068-4464-8340-042EC47275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481AC94-8FE6-4B1A-9322-7BF46829BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
-    <sheet name="past_epidemiology" sheetId="10" r:id="rId2"/>
-    <sheet name="immunity_assumptions" sheetId="11" r:id="rId3"/>
-    <sheet name="epidemic_parameters" sheetId="5" r:id="rId4"/>
+    <sheet name="immunity_assumptions" sheetId="11" r:id="rId2"/>
+    <sheet name="epidemic_parameters" sheetId="5" r:id="rId3"/>
+    <sheet name="endemic_parameters" sheetId="10" r:id="rId4"/>
     <sheet name="list_diseases" sheetId="4" r:id="rId5"/>
     <sheet name="other_lists" sheetId="2" r:id="rId6"/>
     <sheet name="backup" sheetId="9" r:id="rId7"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="349">
   <si>
     <t>parameter</t>
   </si>
@@ -505,15 +505,6 @@
   </si>
   <si>
     <t>pre_tau</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>deaths due to the disease</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>date_start</t>
@@ -1044,6 +1035,75 @@
   </si>
   <si>
     <t>proportion of the population who are susceptible to disease</t>
+  </si>
+  <si>
+    <t>2022, Gaza MoH surveillance</t>
+  </si>
+  <si>
+    <t>2011-2016, W Bank: Abu Seir et al.</t>
+  </si>
+  <si>
+    <t>probably eliminated</t>
+  </si>
+  <si>
+    <t>no evidence of trend, MoH Lebanon</t>
+  </si>
+  <si>
+    <t>no data so kept constant</t>
+  </si>
+  <si>
+    <t>West Bank + Gaza, 2022</t>
+  </si>
+  <si>
+    <t>prop_d</t>
+  </si>
+  <si>
+    <t>proportion of airborne-droplet deaths due to the disease</t>
+  </si>
+  <si>
+    <t>proportion of faecal-oral deaths due to the disease</t>
+  </si>
+  <si>
+    <t>prop_age</t>
+  </si>
+  <si>
+    <t>assumed based on global epidemiology</t>
+  </si>
+  <si>
+    <t>age distribution of mortality</t>
+  </si>
+  <si>
+    <t>assumed based on regional epidemiology and Abu Seir et al.</t>
+  </si>
+  <si>
+    <t>assumed based on 53% reduction in diarrhoeal incidence following rotavirus vaccination and known vaccine effectiveness against disease</t>
+  </si>
+  <si>
+    <t>Ashrafi-Ashgarabad et al.: about 71% of all ALRI deaths in MENA region, but in Gaza high vaccination coverage suggests lower burden in children (also note rare identification of S. pneumoniae in Abu Seir et al.)</t>
+  </si>
+  <si>
+    <t>remaining deaths after subtracting pneumococcal and RSV</t>
+  </si>
+  <si>
+    <t>2011-2016, W Bank: Abu Seir et al., distributed to finer age groups based on Ashrafi-Ashgarabad et al. for older ages and population share for small children</t>
+  </si>
+  <si>
+    <t>Ashrafi-Ashgarabad et al.; death rate among &lt;1yo assumed to be the same as in 1-yo's</t>
+  </si>
+  <si>
+    <t>Assumed based on GBD 2016 (&lt;5yo, &gt;=70yo; remainder distributed based on population share)</t>
+  </si>
+  <si>
+    <t>assumed based on GBD 2016 (crude breakdown)</t>
+  </si>
+  <si>
+    <t>date_crisis</t>
+  </si>
+  <si>
+    <t>start date of the crisis</t>
+  </si>
+  <si>
+    <t>7Oct2023</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1115,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1150,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1135,7 +1209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1210,6 +1284,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1217,6 +1297,48 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1300,48 +1422,6 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1717,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1728,18 +1808,17 @@
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1750,55 +1829,52 @@
         <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1806,106 +1882,93 @@
         <v>13</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="4" t="str">
-        <f>IF(ISNUMBER(SEARCH("placeholder",C2)),"Y","N")</f>
-        <v>N</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25">
+        <v>5810</v>
+      </c>
       <c r="G2" s="25">
-        <v>5810</v>
+        <v>63911</v>
       </c>
       <c r="H2" s="25">
-        <v>63911</v>
+        <v>267336</v>
       </c>
       <c r="I2" s="25">
-        <v>267336</v>
+        <v>284458</v>
       </c>
       <c r="J2" s="25">
-        <v>284458</v>
+        <v>277192</v>
       </c>
       <c r="K2" s="25">
-        <v>277192</v>
+        <v>235937</v>
       </c>
       <c r="L2" s="25">
-        <v>235937</v>
+        <v>383776</v>
       </c>
       <c r="M2" s="25">
-        <v>383776</v>
+        <v>302060</v>
       </c>
       <c r="N2" s="25">
-        <v>302060</v>
+        <v>181617</v>
       </c>
       <c r="O2" s="25">
-        <v>181617</v>
+        <v>118024</v>
       </c>
       <c r="P2" s="25">
-        <v>118024</v>
+        <v>67854</v>
       </c>
       <c r="Q2" s="25">
-        <v>67854</v>
+        <v>30106</v>
       </c>
       <c r="R2" s="25">
-        <v>30106</v>
-      </c>
-      <c r="S2" s="25">
         <v>8463</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D6" si="0">IF(ISNUMBER(SEARCH("placeholder",C3)),"Y","N")</f>
-        <v>N</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4" si="1">IF(ISNUMBER(SEARCH("placeholder",C4)),"Y","N")</f>
-        <v>N</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>326</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1918,26 +1981,24 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>322</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1950,26 +2011,22 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="12">
-        <v>100</v>
-      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1982,15 +2039,22 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2003,15 +2067,14 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2024,15 +2087,14 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2045,15 +2107,14 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2066,15 +2127,14 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2087,918 +2147,15 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="expression" dxfId="31" priority="5">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="expression" dxfId="30" priority="6">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
-      <formula>$E2="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S6">
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>$D2="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S11">
-    <cfRule type="expression" dxfId="27" priority="4">
-      <formula>$E2="N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E1048576" xr:uid="{DFB21536-C202-4CC8-9F8F-63B2A3D2BA5E}">
-      <formula1>yesno</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FFDC5-2941-47EB-8C83-E8CE889C2119}">
-  <dimension ref="A1:AG17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W10" s="4">
-        <f t="shared" ref="W10:AG17" si="0">1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4">
-        <f t="shared" ref="V11:V17" si="1">1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG11" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3010,559 +2167,46 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG12" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG15" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG16" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AA17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AG17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>$G2="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
-      <formula>#REF!="Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
-      <formula>$F2="Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:AG17">
-    <cfRule type="expression" dxfId="23" priority="4">
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:U17">
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$F2="N"</formula>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:AG17">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>$G2="N"</formula>
+  <conditionalFormatting sqref="E2:R7">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{24F5D9C7-82BE-45AA-B411-42CEBB74A101}">
-      <formula1>disease</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G1048576" xr:uid="{8E571914-ADA5-442D-BF47-706B408F3D5A}">
+  <conditionalFormatting sqref="F2:R12">
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>$D2="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{DFB21536-C202-4CC8-9F8F-63B2A3D2BA5E}">
       <formula1>yesno</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{257BD0C5-6B8D-4164-B556-3F10D5906393}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!#REF!)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B4:B62</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E35D295-FB3F-4224-B198-8D2DC24BD7C1}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F7)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B63:B1048562</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F5CA290-4832-468F-8E30-A946F026D503}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F5)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B1048574:B1048576 B2:B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1315643-4D4C-48D3-B161-5E9945A95724}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F1048567)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B1048563:B1048573</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20675C65-574B-4646-8EBB-DE3085645AD1}">
-          <x14:formula1>
-            <xm:f>2000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>YEAR(general!F3)</xm:f>
-          </x14:formula2>
-          <xm:sqref>B1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B34AEB6-3448-469A-95BE-F121CF32094D}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3645,7 +2289,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>47</v>
@@ -3702,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>47</v>
@@ -3759,7 +2403,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
@@ -3816,7 +2460,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -3873,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>47</v>
@@ -3930,7 +2574,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>47</v>
@@ -3987,7 +2631,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>47</v>
@@ -4044,7 +2688,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>47</v>
@@ -4101,7 +2745,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>47</v>
@@ -4158,7 +2802,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>47</v>
@@ -4215,7 +2859,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>47</v>
@@ -4272,10 +2916,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>51</v>
@@ -4329,10 +2973,10 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>50</v>
@@ -4386,10 +3030,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>51</v>
@@ -4443,10 +3087,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
@@ -4500,10 +3144,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>51</v>
@@ -4557,10 +3201,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>51</v>
@@ -4614,10 +3258,10 @@
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>51</v>
@@ -4671,10 +3315,10 @@
         <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>51</v>
@@ -4728,10 +3372,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>51</v>
@@ -4785,10 +3429,10 @@
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>51</v>
@@ -4842,10 +3486,10 @@
         <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>51</v>
@@ -5913,25 +4557,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F42">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F44">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S39">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S44">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5947,15 +4591,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,10 +4679,10 @@
         <v>140</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6046,13 +4690,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -6074,10 +4718,10 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6085,13 +4729,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -6113,10 +4757,10 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -6124,13 +4768,13 @@
         <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -6152,10 +4796,10 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -6163,13 +4807,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
@@ -6191,10 +4835,10 @@
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
       <c r="T5" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -6202,13 +4846,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -6230,10 +4874,10 @@
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -6241,13 +4885,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -6269,10 +4913,10 @@
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -6280,13 +4924,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -6309,7 +4953,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="24"/>
       <c r="U8" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -6317,13 +4961,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
@@ -6345,10 +4989,10 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6356,13 +5000,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
@@ -6384,10 +5028,10 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -6395,13 +5039,13 @@
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -6423,10 +5067,10 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6434,13 +5078,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -6462,10 +5106,10 @@
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6473,13 +5117,13 @@
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
@@ -6501,10 +5145,10 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -6512,13 +5156,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
@@ -6540,10 +5184,10 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6551,13 +5195,13 @@
         <v>141</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
@@ -6579,10 +5223,10 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -6590,13 +5234,13 @@
         <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -6618,10 +5262,10 @@
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -6629,13 +5273,13 @@
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
@@ -6657,10 +5301,10 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6668,13 +5312,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
@@ -6696,10 +5340,10 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6707,13 +5351,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
@@ -6736,7 +5380,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="19"/>
       <c r="U19" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6744,13 +5388,13 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
@@ -6772,10 +5416,10 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6783,13 +5427,13 @@
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
@@ -6811,10 +5455,10 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6822,13 +5466,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
@@ -6850,10 +5494,10 @@
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6861,13 +5505,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
@@ -6889,10 +5533,10 @@
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
       <c r="T23" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6900,13 +5544,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -6928,10 +5572,10 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6939,13 +5583,13 @@
         <v>142</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -6967,10 +5611,10 @@
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6978,13 +5622,13 @@
         <v>141</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -7006,10 +5650,10 @@
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -7017,13 +5661,13 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
@@ -7045,10 +5689,10 @@
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
       <c r="T27" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -7056,13 +5700,13 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -7108,10 +5752,10 @@
         <v>0.44</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -7119,13 +5763,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -7171,10 +5815,10 @@
         <v>3</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -7182,13 +5826,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -7241,13 +5885,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -7293,10 +5937,10 @@
         <v>14.88</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -7304,13 +5948,13 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -7356,10 +6000,10 @@
         <v>1</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -7367,13 +6011,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -7419,10 +6063,10 @@
         <v>0.26</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -7430,13 +6074,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -7482,10 +6126,10 @@
         <v>1</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -7493,13 +6137,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -7545,10 +6189,10 @@
         <v>0.1</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -7556,13 +6200,13 @@
         <v>142</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -7608,10 +6252,10 @@
         <v>4.7</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -7619,13 +6263,13 @@
         <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>14</v>
@@ -7671,10 +6315,10 @@
         <v>4.7</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -7682,13 +6326,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -7734,10 +6378,10 @@
         <v>1</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -7745,13 +6389,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>15</v>
@@ -7773,10 +6417,10 @@
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
       <c r="T39" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -7784,13 +6428,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
@@ -7812,10 +6456,10 @@
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
       <c r="T40" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -7823,13 +6467,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
@@ -7851,10 +6495,10 @@
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
       <c r="T41" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -7862,13 +6506,13 @@
         <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -7890,10 +6534,10 @@
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
       <c r="T42" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -7901,13 +6545,13 @@
         <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
@@ -7929,7 +6573,7 @@
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
       <c r="T43" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U43" s="4"/>
     </row>
@@ -7938,13 +6582,13 @@
         <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>15</v>
@@ -7966,10 +6610,10 @@
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
       <c r="T44" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -7977,13 +6621,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>15</v>
@@ -8005,10 +6649,10 @@
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
       <c r="T45" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -8016,13 +6660,13 @@
         <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
@@ -8044,10 +6688,10 @@
       <c r="R46" s="18"/>
       <c r="S46" s="18"/>
       <c r="T46" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -8055,13 +6699,13 @@
         <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
@@ -8083,10 +6727,10 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
       <c r="T47" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -8094,13 +6738,13 @@
         <v>141</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
@@ -8122,10 +6766,10 @@
       <c r="R48" s="18"/>
       <c r="S48" s="18"/>
       <c r="T48" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -8133,13 +6777,13 @@
         <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
@@ -8161,10 +6805,10 @@
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
       <c r="T49" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -8172,13 +6816,13 @@
         <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>15</v>
@@ -8200,10 +6844,10 @@
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
       <c r="T50" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -8211,13 +6855,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>15</v>
@@ -8239,10 +6883,10 @@
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
       <c r="T51" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -8250,13 +6894,13 @@
         <v>32</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>15</v>
@@ -8278,10 +6922,10 @@
       <c r="R52" s="18"/>
       <c r="S52" s="18"/>
       <c r="T52" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -8289,13 +6933,13 @@
         <v>35</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>15</v>
@@ -8317,10 +6961,10 @@
       <c r="R53" s="18"/>
       <c r="S53" s="18"/>
       <c r="T53" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -8328,13 +6972,13 @@
         <v>36</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>15</v>
@@ -8356,7 +7000,7 @@
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
       <c r="T54" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U54" s="4"/>
     </row>
@@ -8365,13 +7009,13 @@
         <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>15</v>
@@ -8393,10 +7037,10 @@
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
       <c r="T55" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -8404,13 +7048,13 @@
         <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>15</v>
@@ -8432,10 +7076,10 @@
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
       <c r="T56" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -8443,13 +7087,13 @@
         <v>34</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>15</v>
@@ -8471,10 +7115,10 @@
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -8482,13 +7126,13 @@
         <v>142</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
@@ -8511,10 +7155,10 @@
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
       <c r="T58" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -8522,13 +7166,13 @@
         <v>141</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>15</v>
@@ -8551,10 +7195,10 @@
       <c r="R59" s="18"/>
       <c r="S59" s="18"/>
       <c r="T59" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -8562,13 +7206,13 @@
         <v>39</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>15</v>
@@ -8590,10 +7234,10 @@
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
       <c r="T60" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -8629,10 +7273,10 @@
       <c r="R61" s="18"/>
       <c r="S61" s="18"/>
       <c r="T61" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -8668,10 +7312,10 @@
       <c r="R62" s="18"/>
       <c r="S62" s="18"/>
       <c r="T62" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -8707,10 +7351,10 @@
       <c r="R63" s="18"/>
       <c r="S63" s="18"/>
       <c r="T63" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -8746,10 +7390,10 @@
       <c r="R64" s="18"/>
       <c r="S64" s="18"/>
       <c r="T64" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -8785,10 +7429,10 @@
       <c r="R65" s="18"/>
       <c r="S65" s="18"/>
       <c r="T65" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -8824,10 +7468,10 @@
       <c r="R66" s="18"/>
       <c r="S66" s="18"/>
       <c r="T66" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -8863,10 +7507,10 @@
       <c r="R67" s="18"/>
       <c r="S67" s="18"/>
       <c r="T67" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -8902,10 +7546,10 @@
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
       <c r="T68" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -8941,7 +7585,7 @@
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
       <c r="T69" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="U69" s="4"/>
     </row>
@@ -8978,7 +7622,7 @@
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
       <c r="T70" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="U70" s="4"/>
     </row>
@@ -9015,10 +7659,10 @@
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
       <c r="T71" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -9026,13 +7670,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>15</v>
@@ -9055,7 +7699,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -9063,13 +7707,13 @@
         <v>33</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>15</v>
@@ -9091,10 +7735,10 @@
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
       <c r="T73" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -9102,13 +7746,13 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>15</v>
@@ -9131,7 +7775,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -9139,13 +7783,13 @@
         <v>33</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>15</v>
@@ -9167,10 +7811,10 @@
       <c r="R75" s="18"/>
       <c r="S75" s="18"/>
       <c r="T75" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -9178,13 +7822,13 @@
         <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>15</v>
@@ -9206,10 +7850,10 @@
       <c r="R76" s="18"/>
       <c r="S76" s="18"/>
       <c r="T76" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -9217,13 +7861,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>15</v>
@@ -9245,10 +7889,10 @@
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
       <c r="T77" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -9256,13 +7900,13 @@
         <v>32</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>15</v>
@@ -9284,10 +7928,10 @@
       <c r="R78" s="18"/>
       <c r="S78" s="18"/>
       <c r="T78" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -9295,13 +7939,13 @@
         <v>35</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>15</v>
@@ -9323,10 +7967,10 @@
       <c r="R79" s="18"/>
       <c r="S79" s="18"/>
       <c r="T79" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -9334,13 +7978,13 @@
         <v>36</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>15</v>
@@ -9362,7 +8006,7 @@
       <c r="R80" s="18"/>
       <c r="S80" s="18"/>
       <c r="T80" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U80" s="4"/>
     </row>
@@ -9371,13 +8015,13 @@
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>15</v>
@@ -9399,10 +8043,10 @@
       <c r="R81" s="18"/>
       <c r="S81" s="18"/>
       <c r="T81" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -9410,13 +8054,13 @@
         <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>15</v>
@@ -9438,10 +8082,10 @@
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
       <c r="T82" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -9449,13 +8093,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>15</v>
@@ -9477,7 +8121,7 @@
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
       <c r="T83" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U83" s="4"/>
     </row>
@@ -9486,13 +8130,13 @@
         <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>15</v>
@@ -9514,10 +8158,10 @@
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
       <c r="T84" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -9525,13 +8169,13 @@
         <v>141</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>15</v>
@@ -9553,10 +8197,10 @@
       <c r="R85" s="18"/>
       <c r="S85" s="18"/>
       <c r="T85" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -9564,13 +8208,13 @@
         <v>39</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>15</v>
@@ -9592,10 +8236,10 @@
       <c r="R86" s="18"/>
       <c r="S86" s="18"/>
       <c r="T86" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -9603,13 +8247,13 @@
         <v>40</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>15</v>
@@ -9631,10 +8275,10 @@
       <c r="R87" s="18"/>
       <c r="S87" s="18"/>
       <c r="T87" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -9642,13 +8286,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>15</v>
@@ -9670,10 +8314,10 @@
       <c r="R88" s="18"/>
       <c r="S88" s="18"/>
       <c r="T88" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -9681,13 +8325,13 @@
         <v>32</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>15</v>
@@ -9709,7 +8353,7 @@
       <c r="R89" s="18"/>
       <c r="S89" s="18"/>
       <c r="T89" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U89" s="4"/>
     </row>
@@ -9718,13 +8362,13 @@
         <v>35</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>15</v>
@@ -9746,10 +8390,10 @@
       <c r="R90" s="18"/>
       <c r="S90" s="18"/>
       <c r="T90" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -9757,13 +8401,13 @@
         <v>36</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>15</v>
@@ -9785,7 +8429,7 @@
       <c r="R91" s="18"/>
       <c r="S91" s="18"/>
       <c r="T91" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U91" s="4"/>
     </row>
@@ -9794,13 +8438,13 @@
         <v>33</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>15</v>
@@ -9822,10 +8466,10 @@
       <c r="R92" s="18"/>
       <c r="S92" s="18"/>
       <c r="T92" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -9833,13 +8477,13 @@
         <v>38</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>15</v>
@@ -9861,10 +8505,10 @@
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
       <c r="T93" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -9872,13 +8516,13 @@
         <v>34</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>15</v>
@@ -9900,10 +8544,10 @@
       <c r="R94" s="18"/>
       <c r="S94" s="18"/>
       <c r="T94" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -9911,13 +8555,13 @@
         <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>15</v>
@@ -9939,10 +8583,10 @@
       <c r="R95" s="18"/>
       <c r="S95" s="18"/>
       <c r="T95" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -9950,13 +8594,13 @@
         <v>141</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>15</v>
@@ -9978,10 +8622,10 @@
       <c r="R96" s="18"/>
       <c r="S96" s="18"/>
       <c r="T96" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -9989,13 +8633,13 @@
         <v>39</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>15</v>
@@ -10017,10 +8661,10 @@
       <c r="R97" s="18"/>
       <c r="S97" s="18"/>
       <c r="T97" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -10056,10 +8700,10 @@
       <c r="R98" s="18"/>
       <c r="S98" s="18"/>
       <c r="T98" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -10095,10 +8739,10 @@
       <c r="R99" s="18"/>
       <c r="S99" s="18"/>
       <c r="T99" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -10135,7 +8779,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="4"/>
       <c r="U100" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -10171,10 +8815,10 @@
       <c r="R101" s="18"/>
       <c r="S101" s="18"/>
       <c r="T101" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U101" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -10210,10 +8854,10 @@
       <c r="R102" s="18"/>
       <c r="S102" s="18"/>
       <c r="T102" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -10249,10 +8893,10 @@
       <c r="R103" s="18"/>
       <c r="S103" s="18"/>
       <c r="T103" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -10288,10 +8932,10 @@
       <c r="R104" s="18"/>
       <c r="S104" s="18"/>
       <c r="T104" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -10327,10 +8971,10 @@
       <c r="R105" s="18"/>
       <c r="S105" s="18"/>
       <c r="T105" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U105" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -10366,7 +9010,7 @@
       <c r="R106" s="18"/>
       <c r="S106" s="18"/>
       <c r="T106" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="U106" s="4"/>
     </row>
@@ -10403,7 +9047,7 @@
       <c r="R107" s="18"/>
       <c r="S107" s="18"/>
       <c r="T107" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="U107" s="4"/>
     </row>
@@ -10440,7 +9084,7 @@
       <c r="R108" s="18"/>
       <c r="S108" s="18"/>
       <c r="T108" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U108" s="4"/>
     </row>
@@ -10449,10 +9093,10 @@
         <v>40</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>95</v>
@@ -10477,10 +9121,10 @@
       <c r="R109" s="18"/>
       <c r="S109" s="18"/>
       <c r="T109" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U109" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -10488,10 +9132,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>95</v>
@@ -10516,7 +9160,7 @@
       <c r="R110" s="18"/>
       <c r="S110" s="18"/>
       <c r="T110" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U110" s="4"/>
     </row>
@@ -10525,10 +9169,10 @@
         <v>32</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>95</v>
@@ -10553,7 +9197,7 @@
       <c r="R111" s="18"/>
       <c r="S111" s="18"/>
       <c r="T111" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U111" s="22"/>
     </row>
@@ -10562,10 +9206,10 @@
         <v>35</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>95</v>
@@ -10591,7 +9235,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -10599,10 +9243,10 @@
         <v>36</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>95</v>
@@ -10628,7 +9272,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -10636,10 +9280,10 @@
         <v>33</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>95</v>
@@ -10665,7 +9309,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -10673,10 +9317,10 @@
         <v>38</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>95</v>
@@ -10701,7 +9345,7 @@
       <c r="R115" s="18"/>
       <c r="S115" s="18"/>
       <c r="T115" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U115" s="4"/>
     </row>
@@ -10710,10 +9354,10 @@
         <v>34</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>95</v>
@@ -10738,7 +9382,7 @@
       <c r="R116" s="18"/>
       <c r="S116" s="18"/>
       <c r="T116" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U116" s="4"/>
     </row>
@@ -10747,10 +9391,10 @@
         <v>142</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>95</v>
@@ -10776,7 +9420,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -10784,10 +9428,10 @@
         <v>141</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>95</v>
@@ -10813,7 +9457,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -10821,10 +9465,10 @@
         <v>39</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>95</v>
@@ -10849,10 +9493,10 @@
       <c r="R119" s="18"/>
       <c r="S119" s="18"/>
       <c r="T119" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U119" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -10975,37 +9619,37 @@
     <sortCondition ref="B2:B124"/>
   </sortState>
   <conditionalFormatting sqref="F2:F47 F50:F124">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$E48="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$D48="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S47 G48:S49 F50:S124">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:S124">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11038,6 +9682,1724 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FFDC5-2941-47EB-8C83-E8CE889C2119}">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="18" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="200.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17">
+        <v>2.0910232582323088E-3</v>
+      </c>
+      <c r="H3" s="17">
+        <v>2.3001615741288312E-2</v>
+      </c>
+      <c r="I3" s="17">
+        <v>9.6214422334387692E-2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2.3562715673727599E-2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1.472669729607975E-2</v>
+      </c>
+      <c r="L3" s="17">
+        <v>9.8177981973865004E-3</v>
+      </c>
+      <c r="M3" s="17">
+        <v>2.1599156034250298E-2</v>
+      </c>
+      <c r="N3" s="17">
+        <v>3.5344073510591399E-2</v>
+      </c>
+      <c r="O3" s="17">
+        <v>5.1052550626409794E-2</v>
+      </c>
+      <c r="P3" s="17">
+        <v>8.8360183776478501E-2</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0.15119409223975208</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0.1885017253898208</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0.29453394592159499</v>
+      </c>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
+        <v>1.1307761001848353E-2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.12438731727867988</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.52030492171947174</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.152</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L4" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2.2666666666666668E-2</v>
+      </c>
+      <c r="R4" s="17">
+        <v>4.018181818181818E-2</v>
+      </c>
+      <c r="S4" s="17">
+        <v>7.3151515151515162E-2</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>9.8684210526315784E-3</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="N5" s="17">
+        <v>2.3026315789473683E-2</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3.2894736842105261E-2</v>
+      </c>
+      <c r="P5" s="17">
+        <v>8.2236842105263164E-2</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.19078947368421054</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.29276315789473684</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0.35526315789473684</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17">
+        <v>3.1027392992876573E-4</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.4130666326467034E-3</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1.4276659437424529E-2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2.9930928626247123E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1.5349194167306216E-2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1.9186492709132769E-2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>6.1396776669224863E-2</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0.13123561013046814</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0.13775901765157328</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0.24904067536454336</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>6.8851851851851859E-2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0.10953703703703703</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0.15961111111111109</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17">
+        <v>1.0281982083409391E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.11310357262182059</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.47310567336494541</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2.9661170294956338E-2</v>
+      </c>
+      <c r="K7" s="17">
+        <v>2.8903525709945012E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2.4601760315692001E-2</v>
+      </c>
+      <c r="M7" s="17">
+        <v>4.001731465143242E-2</v>
+      </c>
+      <c r="N7" s="17">
+        <v>3.1496576293493284E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1.8937673630058167E-2</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.2306667286179076E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>7.0753118182437036E-3</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0.16470134045476936</v>
+      </c>
+      <c r="S7" s="17">
+        <v>4.6298659545230623E-2</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17">
+        <v>1.0281982083409391E-2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.11310357262182059</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.47310567336494541</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2.9661170294956338E-2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>2.8903525709945012E-2</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2.4601760315692001E-2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>4.001731465143242E-2</v>
+      </c>
+      <c r="N8" s="17">
+        <v>3.1496576293493284E-2</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1.8937673630058167E-2</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1.2306667286179076E-2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>7.0753118182437036E-3</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0.16470134045476936</v>
+      </c>
+      <c r="S8" s="17">
+        <v>4.6298659545230623E-2</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17">
+        <v>1.0281982083409391E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.11310357262182059</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.47310567336494541</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2.9661170294956338E-2</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2.8903525709945012E-2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2.4601760315692001E-2</v>
+      </c>
+      <c r="M9" s="17">
+        <v>4.001731465143242E-2</v>
+      </c>
+      <c r="N9" s="17">
+        <v>3.1496576293493284E-2</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.8937673630058167E-2</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1.2306667286179076E-2</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>7.0753118182437036E-3</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0.16470134045476936</v>
+      </c>
+      <c r="S9" s="17">
+        <v>4.6298659545230623E-2</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18">
+        <f>1-F11-F12</f>
+        <v>0.37</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" ref="U17:AE24" si="0">1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF17" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17">
+        <f t="shared" ref="T18:T24" si="1">1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE18" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF18" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17">
+        <v>0.31625835189309576</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0.14031180400890869</v>
+      </c>
+      <c r="V19" s="17">
+        <v>0.15812917594654788</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0.111358574610245</v>
+      </c>
+      <c r="X19" s="17">
+        <v>2.2271714922048998E-2</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>8.9086859688195987E-3</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>6.6815144766146995E-3</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>6.6815144766146995E-3</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>6.6815144766146995E-3</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>2.2271714922048997E-3</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>3.34075723830735E-2</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>0.18708240534521159</v>
+      </c>
+      <c r="AF19" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17">
+        <v>0.1544129307715767</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0.52319609637084474</v>
+      </c>
+      <c r="V20" s="17">
+        <v>4.2073802988716075E-2</v>
+      </c>
+      <c r="W20" s="17">
+        <v>3.0009149130832569E-3</v>
+      </c>
+      <c r="X20" s="17">
+        <v>5.3674900884415977E-4</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>7.0753278438548341E-4</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>0.18394632509911557</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>8.8587984141506551E-2</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>3.0985056419640133E-3</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>1.8298261665141812E-4</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>1.7078377554132358E-4</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>8.5391887770661789E-5</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17">
+        <v>0.33766592920353983</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0.16261061946902655</v>
+      </c>
+      <c r="V21" s="17">
+        <v>0.13716814159292035</v>
+      </c>
+      <c r="W21" s="17">
+        <v>5.4203539823008851E-2</v>
+      </c>
+      <c r="X21" s="17">
+        <v>2.1847345132743362E-2</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>3.8716814159292035E-3</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>1.3827433628318584E-3</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>1.3827433628318584E-3</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>3.3185840707964601E-3</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>5.2544247787610623E-3</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>0.24004424778761063</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE22" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE23" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE24" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>$E2="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="26">
+      <formula>$D2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:AE24">
+    <cfRule type="expression" dxfId="9" priority="20">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:S24">
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>$D2="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:AE24">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$E2="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0389B3D5-E49A-4667-90BA-6D394B5EAC2D}">
+      <formula1>disease</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E1048576" xr:uid="{04538167-AA08-41A1-BCD9-C5A4495C51CA}">
+      <formula1>yesno</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AF21" r:id="rId1" xr:uid="{C2C7E224-BD5E-4129-A15F-BDD0C0E28A32}"/>
+    <hyperlink ref="AF19" r:id="rId2" xr:uid="{D04C4AAC-64B9-458F-AEC1-596B0633EAB6}"/>
+    <hyperlink ref="AF18" r:id="rId3" xr:uid="{5C483B01-9DFD-4A1F-84DD-87B2AA2DCC4D}"/>
+    <hyperlink ref="AF17" r:id="rId4" xr:uid="{962656B5-C52B-436C-8886-E2F491B94E13}"/>
+    <hyperlink ref="AF10" r:id="rId5" xr:uid="{53841FB3-38C7-41B0-8D99-61EA1FC3045B}"/>
+    <hyperlink ref="AF2" r:id="rId6" xr:uid="{EF6AD8DD-650D-479F-A6A8-0DE7001032D7}"/>
+    <hyperlink ref="AF4" r:id="rId7" display="share of ALRI cases, 2011-2016, W Bank: Abu Seir et al." xr:uid="{6C1438A0-C392-4C77-B1AC-A47B309CD276}"/>
+    <hyperlink ref="AF12" r:id="rId8" xr:uid="{A3F6CAD9-6BA5-44CB-B9B2-6EE11460A2D8}"/>
+    <hyperlink ref="AF14" r:id="rId9" xr:uid="{6B73FE1B-18B2-49E8-9A14-1A7EF4E432C8}"/>
+    <hyperlink ref="AF11" r:id="rId10" xr:uid="{A3B73B0A-7220-4EE5-8A63-F5144AABC02A}"/>
+    <hyperlink ref="AF6" r:id="rId11" display="share of ALRI cases, 2011-2016, W Bank: Abu Seir et al." xr:uid="{EE5D9735-4E8E-4880-96FA-5E3A8B01F34B}"/>
+    <hyperlink ref="AF3" r:id="rId12" xr:uid="{682A9375-A0A1-4C49-9BB9-D7AA947FE067}"/>
+    <hyperlink ref="AF7" r:id="rId13" display="Assumed based on GBD 2016" xr:uid="{C63DE452-BCB1-4EDF-983C-FF1EAFC01A35}"/>
+    <hyperlink ref="AF8" r:id="rId14" display="Assumed based on GBD 2016" xr:uid="{322EC402-096E-417A-A9F9-4582C182B20D}"/>
+    <hyperlink ref="AF9" r:id="rId15" display="Assumed based on GBD 2016" xr:uid="{9C09FA7D-9EF2-47EE-998C-72E5541BE04B}"/>
+    <hyperlink ref="AF15" r:id="rId16" xr:uid="{3A273A66-B840-4AB4-9DD0-B10C2C57A56B}"/>
+    <hyperlink ref="AF16" r:id="rId17" xr:uid="{547BB2BB-4E60-4AAB-AF2B-95EE688DBCAC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79CEAD6-DA28-4D36-992C-BB8C6C629B7E}">
   <dimension ref="A1:G20"/>
@@ -11046,7 +11408,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11070,13 +11432,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -11641,24 +12003,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza_infections\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481AC94-8FE6-4B1A-9322-7BF46829BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC563058-CBDF-41F9-936D-AABB678B85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="351">
   <si>
     <t>parameter</t>
   </si>
@@ -1104,6 +1104,12 @@
   </si>
   <si>
     <t>7Oct2023</t>
+  </si>
+  <si>
+    <t>expert_wt</t>
+  </si>
+  <si>
+    <t>whether experts' weights are considered when averaging elicited parameters</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2051,8 +2057,8 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12">
-        <v>100</v>
+      <c r="E7" s="4">
+        <v>1000</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2068,12 +2074,20 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2203,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B34AEB6-3448-469A-95BE-F121CF32094D}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3995,573 +4009,117 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4">
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4">
-        <v>0</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F42">
+  <conditionalFormatting sqref="F2:F34">
     <cfRule type="expression" dxfId="26" priority="3">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F44">
+  <conditionalFormatting sqref="F2:F36">
     <cfRule type="expression" dxfId="25" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
@@ -4569,12 +4127,12 @@
       <formula>$E2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S39">
+  <conditionalFormatting sqref="F2:S31">
     <cfRule type="expression" dxfId="23" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:S44">
+  <conditionalFormatting sqref="G2:S36">
     <cfRule type="expression" dxfId="22" priority="2">
       <formula>$E2="N"</formula>
     </cfRule>
@@ -4595,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C24" sqref="C24"/>

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC563058-CBDF-41F9-936D-AABB678B85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4EB31-7A15-4AE4-8463-5D5AD03DAB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="352">
   <si>
     <t>parameter</t>
   </si>
@@ -1110,6 +1110,9 @@
   </si>
   <si>
     <t>whether experts' weights are considered when averaging elicited parameters</t>
+  </si>
+  <si>
+    <t>number of simulation runs</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1809,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2051,14 +2054,14 @@
         <v>100</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_infections\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D639E-A2B6-4CD3-BF42-D6589F34FA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126A71-2718-4EBC-9EEE-097B3D4D3A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -1650,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -3542,11 +3542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="16">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -5968,7 +5968,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>

--- a/gaza_infections/inputs/gaza_infections_parameters.xlsx
+++ b/gaza_infections/inputs/gaza_infections_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_infections\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_infections\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126A71-2718-4EBC-9EEE-097B3D4D3A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946070D7-5784-4200-9655-A28B55CC0469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3542,7 +3542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B2EAC-2BE0-4135-B868-E5A90B2AEFD4}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
